--- a/Hep/data/out/Med_Hep_dci.xlsx
+++ b/Hep/data/out/Med_Hep_dci.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>INTROUVABLE (COPEGUS) + PEGINTERFÉRON ALFA-2A</t>
+          <t>Ribavirine + PEGINTERFÉRON ALFA-2A</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>INTROUVABLE (RÉBÉTOL) + INTROUVABLE (VIRAFERON PEG)</t>
+          <t>Ribavirine + Péginterféron alfa-2b</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>INTROUVABLE (VIRAFERON PEG)</t>
+          <t>Péginterféron alfa-2b</t>
         </is>
       </c>
     </row>
@@ -525,7 +525,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>INTROUVABLE (VIRAFÉRON)</t>
+          <t>Interféron alfa-2b</t>
         </is>
       </c>
     </row>
@@ -537,7 +537,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>INTROUVABLE (INTERFERON) + INTROUVABLE (RÉBÉTOL)</t>
+          <t>INTROUVABLE (INTERFERON) + Ribavirine</t>
         </is>
       </c>
     </row>
@@ -549,7 +549,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A + INTROUVABLE (COPEGUS / RÉBÉTOL)</t>
+          <t>PEGINTERFÉRON ALFA-2A + Ribavirine</t>
         </is>
       </c>
     </row>
@@ -573,7 +573,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>INTROUVABLE (HEPSERA)</t>
+          <t>Adéfovir dipivoxil</t>
         </is>
       </c>
     </row>
@@ -585,7 +585,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>INTROUVABLE (COPEGUS / RÉBÉTOL) + INTROUVABLE (VIRAFERON PEG)</t>
+          <t>Ribavirine + Péginterféron alfa-2b</t>
         </is>
       </c>
     </row>
@@ -597,7 +597,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>EMTRICITABINE / FUMARATE DE TÉNOFOVIR DISOPROXIL / RILPIVIRINE (CHLORHYDRATE DE) + INTROUVABLE (VIEKIRAX)</t>
+          <t>EMTRICITABINE / FUMARATE DE TÉNOFOVIR DISOPROXIL / RILPIVIRINE (CHLORHYDRATE DE) + Ombitasvir / Paritaprevir / Ritonavir</t>
         </is>
       </c>
     </row>
@@ -621,7 +621,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>INTROUVABLE (INCIVO) + PEGINTERFÉRON ALFA-2A + INTROUVABLE (COPEGUS)</t>
+          <t>Télaprévir + PEGINTERFÉRON ALFA-2A + Ribavirine</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>INTROUVABLE (SOFOSBUVIR/LEDIPASVIR)</t>
+          <t>Sofosbuvir / Ledipasvir</t>
         </is>
       </c>
     </row>
@@ -645,7 +645,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A + INTROUVABLE (RÉBÉTOL)</t>
+          <t>PEGINTERFÉRON ALFA-2A + Ribavirine</t>
         </is>
       </c>
     </row>
@@ -657,7 +657,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>INTROUVABLE (DAKLINZA) + SOFOSBUVIR</t>
+          <t>Daclatasvir + SOFOSBUVIR</t>
         </is>
       </c>
     </row>
@@ -669,7 +669,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>CHLORHYDRATE D'AMANTADINE + INTROUVABLE (COPEGUS / RÉBÉTOL) + INTROUVABLE (VIRAFERON PEG)</t>
+          <t>CHLORHYDRATE D'AMANTADINE + Ribavirine + Péginterféron alfa-2b</t>
         </is>
       </c>
     </row>
@@ -681,7 +681,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>INTROUVABLE (RÉBÉTOL) + INTROUVABLE (VIRAFERON PEG)</t>
+          <t>Ribavirine + Péginterféron alfa-2b</t>
         </is>
       </c>
     </row>
@@ -693,7 +693,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>INTROUVABLE (SOFOSBUVIR/LEDIPASVIR) + INTROUVABLE (COPEGUS / RÉBÉTOL)</t>
+          <t>Sofosbuvir / Ledipasvir + Ribavirine</t>
         </is>
       </c>
     </row>
@@ -705,7 +705,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>INTROUVABLE (INCIVO) + INTROUVABLE (COPEGUS / RÉBÉTOL)</t>
+          <t>Télaprévir + Ribavirine</t>
         </is>
       </c>
     </row>
@@ -717,7 +717,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>INTROUVABLE (COPEGUS) + INTROUVABLE (INCIVO) + PEGINTERFÉRON ALFA-2A</t>
+          <t>Ribavirine + Télaprévir + PEGINTERFÉRON ALFA-2A</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A + INTROUVABLE (COPEGUS / RÉBÉTOL)</t>
+          <t>PEGINTERFÉRON ALFA-2A + Ribavirine</t>
         </is>
       </c>
     </row>
@@ -741,7 +741,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>INTROUVABLE (SIMEPREVIR) + SOFOSBUVIR</t>
+          <t>SIMEPREVIR + SOFOSBUVIR</t>
         </is>
       </c>
     </row>
@@ -753,7 +753,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>INTROUVABLE (RÉBÉTOL) + INTROUVABLE (VIRAFÉRON)</t>
+          <t>Ribavirine + Interféron alfa-2b</t>
         </is>
       </c>
     </row>
@@ -765,7 +765,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>INTROUVABLE (COPEGUS) + INTROUVABLE (VIRAFERON PEG)</t>
+          <t>Ribavirine + Péginterféron alfa-2b</t>
         </is>
       </c>
     </row>
@@ -777,7 +777,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A + INTROUVABLE (COPEGUS / RÉBÉTOL) + SOFOSBUVIR</t>
+          <t>PEGINTERFÉRON ALFA-2A + Ribavirine + SOFOSBUVIR</t>
         </is>
       </c>
     </row>
@@ -789,7 +789,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>INTROUVABLE (INTERFERON) + INTROUVABLE (VIRAFERON PEG)</t>
+          <t>INTROUVABLE (INTERFERON) + Péginterféron alfa-2b</t>
         </is>
       </c>
     </row>
@@ -813,7 +813,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>INTROUVABLE (INTRONA) + INTROUVABLE (RÉBÉTOL)</t>
+          <t>Interféron alfa-2b + Ribavirine</t>
         </is>
       </c>
     </row>
@@ -825,7 +825,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>INTROUVABLE (TELAPREVIR) + INTROUVABLE (RÉBÉTOL) + INTROUVABLE (VIRAFERON PEG)</t>
+          <t>télaprévir + Ribavirine + Péginterféron alfa-2b</t>
         </is>
       </c>
     </row>
@@ -837,7 +837,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>INTROUVABLE (ASUNAPREVIR) + INTROUVABLE (COPEGUS) + INTROUVABLE (DACLASTAVIR) + PEGINTERFÉRON ALFA-2A</t>
+          <t>Asunaprévir + Ribavirine + daclatasvir + PEGINTERFÉRON ALFA-2A</t>
         </is>
       </c>
     </row>
@@ -849,7 +849,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>INTROUVABLE (COPEGUS / RÉBÉTOL) + INTROUVABLE (VIRAFERON PEG)</t>
+          <t>Ribavirine + Péginterféron alfa-2b</t>
         </is>
       </c>
     </row>
@@ -861,7 +861,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>INTROUVABLE (INTRONA)</t>
+          <t>Interféron alfa-2b</t>
         </is>
       </c>
     </row>
@@ -873,7 +873,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>INTROUVABLE (COPEGUS / RÉBÉTOL) + INTROUVABLE (VIEKIRAX)</t>
+          <t>Ribavirine + Ombitasvir / Paritaprevir / Ritonavir</t>
         </is>
       </c>
     </row>
@@ -885,7 +885,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>INTROUVABLE (ZEPATIER)</t>
+          <t>Elbasvir / Grazoprevir</t>
         </is>
       </c>
     </row>
@@ -897,7 +897,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>INTROUVABLE (DAKLINZA) + INTROUVABLE (COPEGUS / RÉBÉTOL) + SOFOSBUVIR</t>
+          <t>Daclatasvir + Ribavirine + SOFOSBUVIR</t>
         </is>
       </c>
     </row>
@@ -921,7 +921,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>INTROUVABLE (INCIVO) + PEGINTERFÉRON ALFA-2A + INTROUVABLE (COPEGUS / RÉBÉTOL)</t>
+          <t>Télaprévir + PEGINTERFÉRON ALFA-2A + Ribavirine</t>
         </is>
       </c>
     </row>
@@ -933,7 +933,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>INTROUVABLE (ROFÉRON)</t>
+          <t>Interféron alfa-2a</t>
         </is>
       </c>
     </row>
@@ -945,7 +945,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A + INTROUVABLE (RÉBÉTOL) + INTROUVABLE (TELAPREVIR)</t>
+          <t>PEGINTERFÉRON ALFA-2A + Ribavirine + télaprévir</t>
         </is>
       </c>
     </row>
@@ -957,7 +957,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>INTROUVABLE (COPEGUS / RÉBÉTOL) + SOFOSBUVIR</t>
+          <t>Ribavirine + SOFOSBUVIR</t>
         </is>
       </c>
     </row>
@@ -969,7 +969,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>INTROUVABLE (INTERFERON) + INTROUVABLE (COPEGUS / RÉBÉTOL)</t>
+          <t>INTROUVABLE (INTERFERON) + Ribavirine</t>
         </is>
       </c>
     </row>
@@ -981,7 +981,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>INTROUVABLE (COPEGUS / RÉBÉTOL) + INTROUVABLE (VIRAFÉRON)</t>
+          <t>Ribavirine + Interféron alfa-2b</t>
         </is>
       </c>
     </row>
@@ -993,7 +993,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>INTROUVABLE (OLYSIO) + SOFOSBUVIR</t>
+          <t>Simeprevir + SOFOSBUVIR</t>
         </is>
       </c>
     </row>
@@ -1005,7 +1005,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>INTROUVABLE (COPEGUS)</t>
+          <t>Ribavirine</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>INTROUVABLE (DACLATASVIR) + SOFOSBUVIR</t>
+          <t>daclatasvir + SOFOSBUVIR</t>
         </is>
       </c>
     </row>
@@ -1029,7 +1029,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>INTROUVABLE (COPEGUS) + PEGINTERFÉRON ALFA-2A + INTROUVABLE (BOCEPREVIR)</t>
+          <t>Ribavirine + PEGINTERFÉRON ALFA-2A + Boceprevir</t>
         </is>
       </c>
     </row>
@@ -1041,7 +1041,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>INTROUVABLE (OLYSIO) + INTROUVABLE (COPEGUS / RÉBÉTOL) + SOFOSBUVIR</t>
+          <t>Simeprevir + Ribavirine + SOFOSBUVIR</t>
         </is>
       </c>
     </row>
@@ -1053,7 +1053,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>INTROUVABLE (OLYSIO) + SOFOSBUVIR</t>
+          <t>Simeprevir + SOFOSBUVIR</t>
         </is>
       </c>
     </row>
@@ -1065,7 +1065,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>INTROUVABLE (RÉBÉTOL) + INTROUVABLE (ROFÉRON)</t>
+          <t>Ribavirine + Interféron alfa-2a</t>
         </is>
       </c>
     </row>
@@ -1077,7 +1077,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>INTROUVABLE (COPEGUS) + INTROUVABLE (TELAPREVIR) + PEGINTERFÉRON ALFA-2A</t>
+          <t>Ribavirine + télaprévir + PEGINTERFÉRON ALFA-2A</t>
         </is>
       </c>
     </row>
@@ -1089,7 +1089,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>INTROUVABLE (MK5172) + INTROUVABLE (MK8742)</t>
+          <t>Grazoprevir + Elbasvir</t>
         </is>
       </c>
     </row>
@@ -1125,7 +1125,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>INTROUVABLE (DACLATASVIR) + SOFOSBUVIR / VELPATASVIR</t>
+          <t>daclatasvir + Sofosbuvir / Ledipasvir</t>
         </is>
       </c>
     </row>
@@ -1137,7 +1137,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>INTROUVABLE (COPEGUS) + PEGINTERFÉRON ALFA-2A + INTROUVABLE (TELAPREVIR)</t>
+          <t>Ribavirine + PEGINTERFÉRON ALFA-2A + télaprévir</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>INTROUVABLE (DACLATASVIR) + INTROUVABLE (COPEGUS / RÉBÉTOL) + SOFOSBUVIR</t>
+          <t>daclatasvir + Ribavirine + SOFOSBUVIR</t>
         </is>
       </c>
     </row>
@@ -1161,7 +1161,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>INTROUVABLE (ASUNAPREVIR) + INTROUVABLE (DACLATASVIR) + PEGINTERFÉRON ALFA-2A + ÉTRAVIRINE</t>
+          <t>Asunaprévir + daclatasvir + PEGINTERFÉRON ALFA-2A + Ribavirine</t>
         </is>
       </c>
     </row>
@@ -1173,7 +1173,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>ENTÉCAVIR MONOHYDRATÉ + INTROUVABLE (COPEGUS / RÉBÉTOL) + SOFOSBUVIR</t>
+          <t>ENTÉCAVIR MONOHYDRATÉ + Ribavirine + SOFOSBUVIR</t>
         </is>
       </c>
     </row>
@@ -1185,7 +1185,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>INTROUVABLE (INTERFERON) + INTROUVABLE (COPEGUS / RÉBÉTOL)</t>
+          <t>INTROUVABLE (INTERFERON) + Ribavirine</t>
         </is>
       </c>
     </row>
@@ -1197,7 +1197,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>INTROUVABLE (COPEGUS) + INTROUVABLE (INTERFERON)</t>
+          <t>Ribavirine + INTROUVABLE (INTERFERON)</t>
         </is>
       </c>
     </row>
@@ -1209,7 +1209,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>INTROUVABLE (BULEVIRTIDE) + PEGINTERFÉRON ALFA-2A</t>
+          <t>bulévirtide + PEGINTERFÉRON ALFA-2A</t>
         </is>
       </c>
     </row>
@@ -1221,7 +1221,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>INTROUVABLE (RÉBÉTOL) + INTROUVABLE (BOCEPREVIR) + INTROUVABLE (VIRAFERON PEG)</t>
+          <t>Ribavirine + Boceprevir + Péginterféron alfa-2b</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>INTROUVABLE (HEPSERA) + PEGINTERFÉRON ALFA-2A</t>
+          <t>Adéfovir dipivoxil + PEGINTERFÉRON ALFA-2A</t>
         </is>
       </c>
     </row>
@@ -1245,7 +1245,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>INTROUVABLE (COPEGUS / RÉBÉTOL)</t>
+          <t>Ribavirine</t>
         </is>
       </c>
     </row>
@@ -1257,7 +1257,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>INTROUVABLE (COPEGUS) + INTROUVABLE (RÉBÉTOL)</t>
+          <t>Ribavirine + Ribavirine</t>
         </is>
       </c>
     </row>
@@ -1281,7 +1281,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>INTROUVABLE (TELAPREVIR) + PEGINTERFÉRON ALFA-2A + INTROUVABLE (RÉBÉTOL)</t>
+          <t>télaprévir + PEGINTERFÉRON ALFA-2A + Ribavirine</t>
         </is>
       </c>
     </row>
@@ -1293,7 +1293,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>INTROUVABLE (COPEGUS) + INTROUVABLE (VIEKIRAX)</t>
+          <t>Ribavirine + Ombitasvir / Paritaprevir / Ritonavir</t>
         </is>
       </c>
     </row>
@@ -1305,7 +1305,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>INTROUVABLE (DASABUVIR) + INTROUVABLE (COPEGUS / RÉBÉTOL) + INTROUVABLE (OMBITASVIR/PARITAPREVIR/RITONAVIR)</t>
+          <t>dasabuvir + Ribavirine + OMBITASVIR/PARITAPREVIR/RITONAVIR</t>
         </is>
       </c>
     </row>
@@ -1317,7 +1317,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>INTROUVABLE (ASUNAPREVIR) + INTROUVABLE (DACLATASVIR) + PEGINTERFÉRON ALFA-2A + INTROUVABLE (COPEGUS / RÉBÉTOL)</t>
+          <t>Asunaprévir + daclatasvir + PEGINTERFÉRON ALFA-2A + Ribavirine</t>
         </is>
       </c>
     </row>
@@ -1329,7 +1329,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>INTROUVABLE (VIEKIRAX)</t>
+          <t>Ombitasvir / Paritaprevir / Ritonavir</t>
         </is>
       </c>
     </row>
@@ -1341,7 +1341,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>INTROUVABLE (RÉBÉTOL) + SOFOSBUVIR / VELPATASVIR</t>
+          <t>Ribavirine + Sofosbuvir / Ledipasvir</t>
         </is>
       </c>
     </row>
@@ -1353,7 +1353,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>INTROUVABLE (RÉBÉTOL)</t>
+          <t>Ribavirine</t>
         </is>
       </c>
     </row>
@@ -1365,7 +1365,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>INTROUVABLE (DAKLINZA) + INTROUVABLE (OLYSIO) + SOFOSBUVIR</t>
+          <t>Daclatasvir + Simeprevir + SOFOSBUVIR</t>
         </is>
       </c>
     </row>
@@ -1377,7 +1377,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A + ÉTRAVIRINE</t>
+          <t>PEGINTERFÉRON ALFA-2A + Ribavirine</t>
         </is>
       </c>
     </row>
@@ -1389,7 +1389,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>LÉDIPASVIR / SOFOSBUVIR + INTROUVABLE (COPEGUS / RÉBÉTOL)</t>
+          <t>LÉDIPASVIR / SOFOSBUVIR + Ribavirine</t>
         </is>
       </c>
     </row>
@@ -1401,7 +1401,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>EMTRICITABINE / FUMARATE DE TÉNOFOVIR DISOPROXIL / RILPIVIRINE (CHLORHYDRATE DE) + INTROUVABLE (ABT-267) + INTROUVABLE (ABT- 450/ R) + INTROUVABLE (COPEGUS / RÉBÉTOL) + SOFOSBUVIR</t>
+          <t>EMTRICITABINE / FUMARATE DE TÉNOFOVIR DISOPROXIL / RILPIVIRINE (CHLORHYDRATE DE) + Ombitasvir + Lopinavir / ritonavir + Ribavirine + SOFOSBUVIR</t>
         </is>
       </c>
     </row>
@@ -1437,7 +1437,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>INTROUVABLE (COPEGUS) + CHLORHYDRATE D'AMANTADINE + PEGINTERFÉRON ALFA-2A</t>
+          <t>Ribavirine + CHLORHYDRATE D'AMANTADINE + PEGINTERFÉRON ALFA-2A</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>INTROUVABLE (ABT-333) + SOFOSBUVIR</t>
+          <t>Dasabuvir + SOFOSBUVIR</t>
         </is>
       </c>
     </row>
@@ -1461,7 +1461,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A + INTROUVABLE (RÉBÉTOL) + INTROUVABLE (DACLATASVIR)</t>
+          <t>PEGINTERFÉRON ALFA-2A + Ribavirine + daclatasvir</t>
         </is>
       </c>
     </row>
@@ -1473,7 +1473,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>EMTRICITABINE / FUMARATE DE TÉNOFOVIR DISOPROXIL / RILPIVIRINE (CHLORHYDRATE DE) + INTROUVABLE (COPEGUS / RÉBÉTOL) + INTROUVABLE (VIEKIRAX)</t>
+          <t>EMTRICITABINE / FUMARATE DE TÉNOFOVIR DISOPROXIL / RILPIVIRINE (CHLORHYDRATE DE) + Ribavirine + Ombitasvir / Paritaprevir / Ritonavir</t>
         </is>
       </c>
     </row>
@@ -1485,7 +1485,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>INTROUVABLE (COPEGUS) + INTROUVABLE (VIRAFÉRON)</t>
+          <t>Ribavirine + Interféron alfa-2b</t>
         </is>
       </c>
     </row>
@@ -1497,7 +1497,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>INTROUVABLE (ASUNAPREVIR) + INTROUVABLE (COPEGUS) + INTROUVABLE (DACLATASVIR) + PEGINTERFÉRON ALFA-2A</t>
+          <t>Asunaprévir + Ribavirine + daclatasvir + PEGINTERFÉRON ALFA-2A</t>
         </is>
       </c>
     </row>
@@ -1509,7 +1509,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>INTROUVABLE (BMS 79 002) + INTROUVABLE (DACLATASVIR) + INTROUVABLE (COPEGUS / RÉBÉTOL)</t>
+          <t>INTROUVABLE (BMS 79 002) + daclatasvir + Ribavirine</t>
         </is>
       </c>
     </row>
@@ -1533,7 +1533,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>INTROUVABLE (DACLATASVIR) + INTROUVABLE (INTERFERON) + ÉTRAVIRINE</t>
+          <t>daclatasvir + INTROUVABLE (INTERFERON) + Ribavirine</t>
         </is>
       </c>
     </row>
@@ -1545,7 +1545,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>INTROUVABLE (INCIVO) + PEGINTERFÉRON ALFA-2A + ÉTRAVIRINE</t>
+          <t>Télaprévir + PEGINTERFÉRON ALFA-2A + Ribavirine</t>
         </is>
       </c>
     </row>
@@ -1557,7 +1557,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>INTROUVABLE (COPEGUS) + INTROUVABLE (VIRAFERON PEG) + INTROUVABLE (BOCEPREVIR)</t>
+          <t>Ribavirine + Péginterféron alfa-2b + Boceprevir</t>
         </is>
       </c>
     </row>
@@ -1569,7 +1569,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>INTROUVABLE (INTERFERON) + PEGINTERFÉRON ALFA-2A + INTROUVABLE (COPEGUS / RÉBÉTOL)</t>
+          <t>INTROUVABLE (INTERFERON) + PEGINTERFÉRON ALFA-2A + Ribavirine</t>
         </is>
       </c>
     </row>
@@ -1581,7 +1581,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>INTROUVABLE (INTERFERON) + ÉTRAVIRINE</t>
+          <t>INTROUVABLE (INTERFERON) + Ribavirine</t>
         </is>
       </c>
     </row>
@@ -1593,7 +1593,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>SOFOSBUVIR / VELPATASVIR + INTROUVABLE (COPEGUS / RÉBÉTOL)</t>
+          <t>SOFOSBUVIR / VELPATASVIR + Ribavirine</t>
         </is>
       </c>
     </row>
@@ -1605,7 +1605,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>INTROUVABLE (VIRAFÉRON) + LAMIVUDINE</t>
+          <t>Interféron alfa-2b + LAMIVUDINE</t>
         </is>
       </c>
     </row>
@@ -1617,7 +1617,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>INTROUVABLE (ABT-333) + INTROUVABLE (ABT-267) + INTROUVABLE (COPEGUS / RÉBÉTOL)</t>
+          <t>Dasabuvir + Ombitasvir + Ribavirine</t>
         </is>
       </c>
     </row>
@@ -1629,7 +1629,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>ENTÉCAVIR MONOHYDRATÉ + INTROUVABLE (VIRAFERON PEG)</t>
+          <t>ENTÉCAVIR MONOHYDRATÉ + Péginterféron alfa-2b</t>
         </is>
       </c>
     </row>
@@ -1653,7 +1653,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>INTROUVABLE (COPEGUS / RÉBÉTOL) + SOFOSBUVIR / VELPATASVIR</t>
+          <t>Ribavirine + SOFOSBUVIR / VELPATASVIR</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>ÉTRAVIRINE + SOFOSBUVIR / VELPATASVIR</t>
+          <t>Ribavirine + Sofosbuvir / Ledipasvir</t>
         </is>
       </c>
     </row>
@@ -1677,7 +1677,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>INTROUVABLE (COPEGUS / RÉBÉTOL) + SOFOSBUVIR / VELPATASVIR</t>
+          <t>Ribavirine + Sofosbuvir / Ledipasvir</t>
         </is>
       </c>
     </row>
@@ -1689,7 +1689,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>ÉTRAVIRINE + INTROUVABLE (VIRAFERON PEG)</t>
+          <t>Ribavirine + Péginterféron alfa-2b</t>
         </is>
       </c>
     </row>
@@ -1701,7 +1701,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>INTROUVABLE (INCIVO)</t>
+          <t>Télaprévir</t>
         </is>
       </c>
     </row>
@@ -1725,7 +1725,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>INTROUVABLE (RÉBÉTOL) + INTROUVABLE (VICTRELIS) + INTROUVABLE (VIRAFERON PEG)</t>
+          <t>Ribavirine + Bocéprévir + Péginterféron alfa-2b</t>
         </is>
       </c>
     </row>
@@ -1737,7 +1737,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>INTROUVABLE (COPEGUS) + INTROUVABLE (INCIVO) + INTROUVABLE (VIRAFERON PEG)</t>
+          <t>Ribavirine + Télaprévir + Péginterféron alfa-2b</t>
         </is>
       </c>
     </row>
@@ -1749,7 +1749,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>INTROUVABLE (HEPSERA) + ENTÉCAVIR MONOHYDRATÉ</t>
+          <t>Adéfovir dipivoxil + ENTÉCAVIR MONOHYDRATÉ</t>
         </is>
       </c>
     </row>
@@ -1761,7 +1761,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>INTROUVABLE (ABT-493) + INTROUVABLE (ABT-530)</t>
+          <t>Glecaprevir + Lopinavir / ritonavir</t>
         </is>
       </c>
     </row>
@@ -1773,7 +1773,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>INTROUVABLE (INCIVO) + PEGINTERFÉRON ALFA-2A + INTROUVABLE (COPEGUS / RÉBÉTOL)</t>
+          <t>Télaprévir + PEGINTERFÉRON ALFA-2A + Ribavirine</t>
         </is>
       </c>
     </row>
@@ -1785,7 +1785,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>INTROUVABLE (INTERFERON) + INTROUVABLE (RÉBÉTOL) + INTROUVABLE (BOCEPREVIR)</t>
+          <t>INTROUVABLE (INTERFERON) + Ribavirine + Boceprevir</t>
         </is>
       </c>
     </row>
@@ -1797,7 +1797,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>INTROUVABLE (COPEGUS) + INTROUVABLE (TELAPREVIR) + PEGINTERFÉRON ALFA-2A + INTROUVABLE (RÉBÉTOL)</t>
+          <t>Ribavirine + télaprévir + PEGINTERFÉRON ALFA-2A + Ribavirine</t>
         </is>
       </c>
     </row>
@@ -1809,7 +1809,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>INTROUVABLE (RÉBÉTOL) + INTROUVABLE (BOCEPREVIR) + INTROUVABLE (VIRAFÉRON)</t>
+          <t>Ribavirine + Boceprevir + Interféron alfa-2b</t>
         </is>
       </c>
     </row>
@@ -1821,7 +1821,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>INTROUVABLE (COPEGUS) + PEGINTERFÉRON ALFA-2A + INTROUVABLE (TMC 435 ANTIPROTÉASE)</t>
+          <t>Ribavirine + PEGINTERFÉRON ALFA-2A + Rilpivirine</t>
         </is>
       </c>
     </row>
@@ -1833,7 +1833,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>INTROUVABLE (DACLATASVIR) + PEGINTERFÉRON ALFA-2A + INTROUVABLE (COPEGUS / RÉBÉTOL)</t>
+          <t>daclatasvir + PEGINTERFÉRON ALFA-2A + Ribavirine</t>
         </is>
       </c>
     </row>
@@ -1845,7 +1845,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>INTROUVABLE (COPEGUS) + PEGINTERFÉRON ALFA-2A + INTROUVABLE (DACLATASVIR)</t>
+          <t>Ribavirine + PEGINTERFÉRON ALFA-2A + daclatasvir</t>
         </is>
       </c>
     </row>
@@ -1857,7 +1857,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>INTROUVABLE (HEPSERA) + LAMIVUDINE</t>
+          <t>Adéfovir dipivoxil + LAMIVUDINE</t>
         </is>
       </c>
     </row>
@@ -1869,7 +1869,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A + INTROUVABLE (COPEGUS)</t>
+          <t>PEGINTERFÉRON ALFA-2A + Ribavirine</t>
         </is>
       </c>
     </row>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>INTROUVABLE (ALUVIA) + INTROUVABLE (BULEVIRTIDE)</t>
+          <t>Lopinavir / Ritonavir + bulévirtide</t>
         </is>
       </c>
     </row>
@@ -1893,7 +1893,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>INTROUVABLE (COPEGUS / RÉBÉTOL) + INTROUVABLE (OMBITASVIR/PARITAPREVIR/RITONAVIR)</t>
+          <t>Ribavirine + OMBITASVIR/PARITAPREVIR/RITONAVIR</t>
         </is>
       </c>
     </row>
@@ -1905,7 +1905,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>ENTÉCAVIR MONOHYDRATÉ + INTROUVABLE (COPEGUS) + PEGINTERFÉRON ALFA-2A</t>
+          <t>ENTÉCAVIR MONOHYDRATÉ + Ribavirine + PEGINTERFÉRON ALFA-2A</t>
         </is>
       </c>
     </row>
@@ -1917,7 +1917,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>INTROUVABLE (ASUNAPREVIR) + ENTÉCAVIR MONOHYDRATÉ + INTROUVABLE (COPEGUS) + INTROUVABLE (DACLATASVIR) + PEGINTERFÉRON ALFA-2A</t>
+          <t>Asunaprévir + ENTÉCAVIR MONOHYDRATÉ + Ribavirine + daclatasvir + PEGINTERFÉRON ALFA-2A</t>
         </is>
       </c>
     </row>
@@ -1929,7 +1929,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>INTROUVABLE (COPEGUS / RÉBÉTOL)</t>
+          <t>Ribavirine</t>
         </is>
       </c>
     </row>
@@ -1941,7 +1941,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>INTROUVABLE (COPEGUS / RÉBÉTOL) + INTROUVABLE (SIMEPREVIR) + SOFOSBUVIR</t>
+          <t>Ribavirine + SIMEPREVIR + SOFOSBUVIR</t>
         </is>
       </c>
     </row>
@@ -1965,7 +1965,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>INTROUVABLE (BULEVIRTIDE)</t>
+          <t>bulévirtide</t>
         </is>
       </c>
     </row>
@@ -1977,7 +1977,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>INTROUVABLE (TELAPREVIR) + INTROUVABLE (INTERFERON) + INTROUVABLE (RÉBÉTOL)</t>
+          <t>télaprévir + INTROUVABLE (INTERFERON) + Ribavirine</t>
         </is>
       </c>
     </row>
@@ -1989,7 +1989,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>GLÉCAPRÉVIR / PIBRENTASVIR + INTROUVABLE (COPEGUS / RÉBÉTOL) + SOFOSBUVIR</t>
+          <t>GLÉCAPRÉVIR / PIBRENTASVIR + Ribavirine + SOFOSBUVIR</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>INTROUVABLE (INCIVO) + INTROUVABLE (INTERFERON) + INTROUVABLE (COPEGUS / RÉBÉTOL)</t>
+          <t>Télaprévir + INTROUVABLE (INTERFERON) + Ribavirine</t>
         </is>
       </c>
     </row>
@@ -2013,7 +2013,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A + INTROUVABLE (COPEGUS / RÉBÉTOL) + INTROUVABLE (VICTRELIS)</t>
+          <t>PEGINTERFÉRON ALFA-2A + Ribavirine + Bocéprévir</t>
         </is>
       </c>
     </row>
@@ -2025,7 +2025,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>INTROUVABLE (COPEGUS / RÉBÉTOL) + SOFOSBUVIR + INTROUVABLE (ZEPATIER)</t>
+          <t>Ribavirine + SOFOSBUVIR + Elbasvir / Grazoprevir</t>
         </is>
       </c>
     </row>
@@ -2037,7 +2037,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>INTROUVABLE (COPEGUS) + PEGINTERFÉRON ALFA-2A + INTROUVABLE (VICTRELIS)</t>
+          <t>Ribavirine + PEGINTERFÉRON ALFA-2A + Bocéprévir</t>
         </is>
       </c>
     </row>
@@ -2049,7 +2049,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>INTROUVABLE (VICTRELIS)</t>
+          <t>Bocéprévir</t>
         </is>
       </c>
     </row>
@@ -2061,7 +2061,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>INTROUVABLE (DASABUVIR) + INTROUVABLE (OMBITASVIR/PARITAPREVIR/RITONAVIR)</t>
+          <t>dasabuvir + OMBITASVIR/PARITAPREVIR/RITONAVIR</t>
         </is>
       </c>
     </row>
@@ -2085,7 +2085,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>CHLORHYDRATE D'AMANTADINE + INTROUVABLE (RÉBÉTOL) + INTROUVABLE (VIRAFERON PEG)</t>
+          <t>CHLORHYDRATE D'AMANTADINE + Ribavirine + Péginterféron alfa-2b</t>
         </is>
       </c>
     </row>
@@ -2097,7 +2097,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>ÉTRAVIRINE + INTROUVABLE (INTERFERON)</t>
+          <t>Ribavirine + INTROUVABLE (INTERFERON)</t>
         </is>
       </c>
     </row>
@@ -2109,7 +2109,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>INTROUVABLE (COPEGUS) + SOFOSBUVIR / VELPATASVIR</t>
+          <t>Ribavirine + Sofosbuvir / Ledipasvir</t>
         </is>
       </c>
     </row>
@@ -2145,7 +2145,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>INTROUVABLE (INCIVO) + PEGINTERFÉRON ALFA-2A + INTROUVABLE (RÉBÉTOL)</t>
+          <t>Télaprévir + PEGINTERFÉRON ALFA-2A + Ribavirine</t>
         </is>
       </c>
     </row>
@@ -2157,7 +2157,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A + INTROUVABLE (COPEGUS / RÉBÉTOL) + SOFOSBUVIR / VELPATASVIR</t>
+          <t>PEGINTERFÉRON ALFA-2A + Ribavirine + Sofosbuvir / Ledipasvir</t>
         </is>
       </c>
     </row>
@@ -2169,7 +2169,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A + INTROUVABLE (COPEGUS)</t>
+          <t>PEGINTERFÉRON ALFA-2A + Ribavirine</t>
         </is>
       </c>
     </row>
@@ -2181,7 +2181,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>INTROUVABLE (COPEGUS / RÉBÉTOL) + INTROUVABLE (VIRAFÉRON)</t>
+          <t>Ribavirine + Interféron alfa-2b</t>
         </is>
       </c>
     </row>
@@ -2193,7 +2193,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>SOFOSBUVIR + INTROUVABLE (ZEPATIER)</t>
+          <t>SOFOSBUVIR + Elbasvir / Grazoprevir</t>
         </is>
       </c>
     </row>
@@ -2205,7 +2205,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>INTROUVABLE (COPEGUS) + INTROUVABLE (ROFÉRON)</t>
+          <t>Ribavirine + Interféron alfa-2a</t>
         </is>
       </c>
     </row>
@@ -2217,7 +2217,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>INTROUVABLE (INTERFERON) + INTROUVABLE (COPEGUS / RÉBÉTOL) + INTROUVABLE (VICTRELIS)</t>
+          <t>INTROUVABLE (INTERFERON) + Ribavirine + Bocéprévir</t>
         </is>
       </c>
     </row>
@@ -2229,7 +2229,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>INTROUVABLE (BULEVIRTIDE) + PEGINTERFÉRON ALFA-2A</t>
+          <t>bulévirtide + PEGINTERFÉRON ALFA-2A</t>
         </is>
       </c>
     </row>
@@ -2241,7 +2241,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>LÉDIPASVIR / SOFOSBUVIR + INTROUVABLE (INTERFERON) + INTROUVABLE (COPEGUS / RÉBÉTOL)</t>
+          <t>LÉDIPASVIR / SOFOSBUVIR + INTROUVABLE (INTERFERON) + Ribavirine</t>
         </is>
       </c>
     </row>
@@ -2253,7 +2253,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>ÉTRAVIRINE</t>
+          <t>Ribavirine</t>
         </is>
       </c>
     </row>
@@ -2265,7 +2265,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>INTROUVABLE (HEPSERA) + INTROUVABLE (VIRAFERON PEG) + LAMIVUDINE</t>
+          <t>Adéfovir dipivoxil + Péginterféron alfa-2b + LAMIVUDINE</t>
         </is>
       </c>
     </row>
@@ -2277,7 +2277,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>INTROUVABLE (BI 207127 ANTIPOLYMÉRASE) + INTROUVABLE (BMS 79 002) + PEGINTERFÉRON ALFA-2A + INTROUVABLE (RÉBÉTOL)</t>
+          <t>Deleobuvir + INTROUVABLE (BMS 79 002) + PEGINTERFÉRON ALFA-2A + Ribavirine</t>
         </is>
       </c>
     </row>
@@ -2289,7 +2289,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>LÉDIPASVIR / SOFOSBUVIR + PEGINTERFÉRON ALFA-2A + INTROUVABLE (COPEGUS / RÉBÉTOL)</t>
+          <t>LÉDIPASVIR / SOFOSBUVIR + PEGINTERFÉRON ALFA-2A + Ribavirine</t>
         </is>
       </c>
     </row>
@@ -2301,7 +2301,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>ENTÉCAVIR MONOHYDRATÉ + INTROUVABLE (HEPSERA)</t>
+          <t>ENTÉCAVIR MONOHYDRATÉ + Adéfovir dipivoxil</t>
         </is>
       </c>
     </row>
@@ -2313,7 +2313,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>INTROUVABLE (INTERFERON) + INTROUVABLE (RÉBÉTOL) + INTROUVABLE (VICTRELIS)</t>
+          <t>INTROUVABLE (INTERFERON) + Ribavirine + Bocéprévir</t>
         </is>
       </c>
     </row>
@@ -2325,7 +2325,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A + INTROUVABLE (RÉBÉTOL) + INTROUVABLE (BOCEPREVIR)</t>
+          <t>PEGINTERFÉRON ALFA-2A + Ribavirine + Boceprevir</t>
         </is>
       </c>
     </row>
@@ -2337,7 +2337,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>INTROUVABLE (RÉBÉTOL) + INTROUVABLE (VIRAFERON PEG) + INTROUVABLE (BOCEPREVIR)</t>
+          <t>Ribavirine + Péginterféron alfa-2b + Boceprevir</t>
         </is>
       </c>
     </row>
@@ -2349,7 +2349,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>INTROUVABLE (COPEGUS / RÉBÉTOL) + SOFOSBUVIR / VELPATASVIR / VOXILAPRÉVIR</t>
+          <t>Ribavirine + SOFOSBUVIR / VELPATASVIR / VOXILAPRÉVIR</t>
         </is>
       </c>
     </row>
@@ -2361,7 +2361,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>INTROUVABLE (COPEGUS) + PEGINTERFÉRON ALFA-2A + INTROUVABLE (BI 201335 ANTIPROTÉASE)</t>
+          <t>Ribavirine + PEGINTERFÉRON ALFA-2A + Deleobuvir</t>
         </is>
       </c>
     </row>
@@ -2385,7 +2385,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>INTROUVABLE (COPEGUS) + INTROUVABLE (INTRONA)</t>
+          <t>Ribavirine + Interféron alfa-2b</t>
         </is>
       </c>
     </row>
@@ -2397,7 +2397,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>INTROUVABLE (INCIVO) + INTROUVABLE (INTERFERON) + INTROUVABLE (COPEGUS / RÉBÉTOL)</t>
+          <t>Télaprévir + INTROUVABLE (INTERFERON) + Ribavirine</t>
         </is>
       </c>
     </row>
@@ -2409,7 +2409,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>INTROUVABLE (COPEGUS / RÉBÉTOL) + SOFOSBUVIR + INTROUVABLE (VIRAFERON PEG)</t>
+          <t>Ribavirine + SOFOSBUVIR + Péginterféron alfa-2b</t>
         </is>
       </c>
     </row>
@@ -2421,7 +2421,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>INTROUVABLE (ASUNAPREVIR) + INTROUVABLE (DACLATASVIR) + INTROUVABLE (INTERFERON) + INTROUVABLE (COPEGUS / RÉBÉTOL)</t>
+          <t>Asunaprévir + daclatasvir + INTROUVABLE (INTERFERON) + Ribavirine</t>
         </is>
       </c>
     </row>
@@ -2433,7 +2433,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>INTROUVABLE (RÉBÉTOL) + INTROUVABLE (VIRAFERON)</t>
+          <t>Ribavirine + Interféron alfa-2b</t>
         </is>
       </c>
     </row>
@@ -2445,7 +2445,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>INTROUVABLE (RÉBÉTOL) + INTROUVABLE (ROFÉRON) + INTROUVABLE (VIRAFERON PEG)</t>
+          <t>Ribavirine + Interféron alfa-2a + Péginterféron alfa-2b</t>
         </is>
       </c>
     </row>
@@ -2457,7 +2457,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>INTROUVABLE (INTERFERON) + INTROUVABLE (COPEGUS / RÉBÉTOL) + SOFOSBUVIR</t>
+          <t>INTROUVABLE (INTERFERON) + Ribavirine + SOFOSBUVIR</t>
         </is>
       </c>
     </row>
@@ -2469,7 +2469,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>INTROUVABLE (INCIVO) + PEGINTERFÉRON ALFA-2A</t>
+          <t>Télaprévir + PEGINTERFÉRON ALFA-2A</t>
         </is>
       </c>
     </row>
@@ -2481,7 +2481,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>INTROUVABLE (VIRAFÉRON) + INTROUVABLE (RÉBÉTOL)</t>
+          <t>Interféron alfa-2b + Ribavirine</t>
         </is>
       </c>
     </row>
@@ -2493,7 +2493,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>INTROUVABLE (TELAPREVIR)</t>
+          <t>télaprévir</t>
         </is>
       </c>
     </row>
@@ -2505,7 +2505,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>INTROUVABLE (INTRONA) + PEGINTERFÉRON ALFA-2A + INTROUVABLE (RÉBÉTOL)</t>
+          <t>Interféron alfa-2b + PEGINTERFÉRON ALFA-2A + Ribavirine</t>
         </is>
       </c>
     </row>
@@ -2517,7 +2517,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>ÉTRAVIRINE + INTROUVABLE (ROFÉRON)</t>
+          <t>Ribavirine + Interféron alfa-2a</t>
         </is>
       </c>
     </row>
@@ -2529,7 +2529,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>INTROUVABLE (DAKLINZA) + INTROUVABLE (COPEGUS / RÉBÉTOL) + SOFOSBUVIR / VELPATASVIR</t>
+          <t>Daclatasvir + Ribavirine + SOFOSBUVIR / VELPATASVIR</t>
         </is>
       </c>
     </row>
@@ -2541,7 +2541,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>EMTRICITABINE / TÉNOFOVIR DISOPROXIL (FUMARATE DE) + INTROUVABLE (COPEGUS / RÉBÉTOL) + SOFOSBUVIR</t>
+          <t>EMTRICITABINE / TÉNOFOVIR DISOPROXIL (FUMARATE DE) + Ribavirine + SOFOSBUVIR</t>
         </is>
       </c>
     </row>
@@ -2553,7 +2553,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>INTROUVABLE (COPEGUS) + INTROUVABLE (BOCEPREVIR) + INTROUVABLE (VIRAFERON PEG)</t>
+          <t>Ribavirine + Boceprevir + Péginterféron alfa-2b</t>
         </is>
       </c>
     </row>
@@ -2565,7 +2565,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>ZIDOVUDINE + INTROUVABLE (VIDEX)</t>
+          <t>ZIDOVUDINE + Didanosine</t>
         </is>
       </c>
     </row>
@@ -2577,7 +2577,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>INTROUVABLE (INCIVO) + PEGINTERFÉRON ALFA-2A + INTROUVABLE (RÉBÉTOL)</t>
+          <t>Télaprévir + PEGINTERFÉRON ALFA-2A + Ribavirine</t>
         </is>
       </c>
     </row>
@@ -2589,7 +2589,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A + INTROUVABLE (RÉBÉTOL)</t>
+          <t>PEGINTERFÉRON ALFA-2A + Ribavirine</t>
         </is>
       </c>
     </row>
@@ -2601,7 +2601,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>INTROUVABLE (ABT-267) + INTROUVABLE (ABT- 450/ R) + INTROUVABLE (COPEGUS / RÉBÉTOL)</t>
+          <t>Ombitasvir + Lopinavir / ritonavir + Ribavirine</t>
         </is>
       </c>
     </row>
@@ -2613,7 +2613,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>SOFOSBUVIR / VELPATASVIR + PEGINTERFÉRON ALFA-2A + INTROUVABLE (COPEGUS / RÉBÉTOL)</t>
+          <t>SOFOSBUVIR / VELPATASVIR + PEGINTERFÉRON ALFA-2A + Ribavirine</t>
         </is>
       </c>
     </row>
@@ -2625,7 +2625,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>INTROUVABLE (RÉBÉTOL) + INTROUVABLE (INTERFÉRON PEGYLÉ)</t>
+          <t>Ribavirine + Péginterféron alfa (non précisé)</t>
         </is>
       </c>
     </row>
@@ -2637,7 +2637,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A + INTROUVABLE (RÉBÉTOL) + LAMIVUDINE</t>
+          <t>PEGINTERFÉRON ALFA-2A + Ribavirine + LAMIVUDINE</t>
         </is>
       </c>
     </row>
@@ -2649,7 +2649,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>INTROUVABLE (DAKLINZA) + PEGINTERFÉRON ALFA-2A + INTROUVABLE (COPEGUS / RÉBÉTOL)</t>
+          <t>Daclatasvir + PEGINTERFÉRON ALFA-2A + Ribavirine</t>
         </is>
       </c>
     </row>
@@ -2661,7 +2661,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A + ÉTRAVIRINE + INTROUVABLE (VICTRELIS)</t>
+          <t>PEGINTERFÉRON ALFA-2A + Ribavirine + Bocéprévir</t>
         </is>
       </c>
     </row>
@@ -2673,7 +2673,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>INTROUVABLE (ASUNAPREVIR) + INTROUVABLE (DAKLINZA)</t>
+          <t>Asunaprévir + Daclatasvir</t>
         </is>
       </c>
     </row>
@@ -2685,7 +2685,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>INTROUVABLE (INCIVO) + INTROUVABLE (RÉBÉTOL) + INTROUVABLE (VIRAFERON PEG)</t>
+          <t>Télaprévir + Ribavirine + Péginterféron alfa-2b</t>
         </is>
       </c>
     </row>
@@ -2697,7 +2697,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>CHLORHYDRATE D'AMANTADINE + PEGINTERFÉRON ALFA-2A + INTROUVABLE (RÉBÉTOL)</t>
+          <t>CHLORHYDRATE D'AMANTADINE + PEGINTERFÉRON ALFA-2A + Ribavirine</t>
         </is>
       </c>
     </row>
@@ -2709,7 +2709,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>INTROUVABLE (ZEPATIER)</t>
+          <t>Elbasvir / Grazoprevir</t>
         </is>
       </c>
     </row>
@@ -2721,7 +2721,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>CHLORHYDRATE D'AMANTADINE + PEGINTERFÉRON ALFA-2A + INTROUVABLE (COPEGUS / RÉBÉTOL)</t>
+          <t>CHLORHYDRATE D'AMANTADINE + PEGINTERFÉRON ALFA-2A + Ribavirine</t>
         </is>
       </c>
     </row>
@@ -2733,7 +2733,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A + INTROUVABLE (COPEGUS / RÉBÉTOL) + INTROUVABLE (VICTRELIS)</t>
+          <t>PEGINTERFÉRON ALFA-2A + Ribavirine + Bocéprévir</t>
         </is>
       </c>
     </row>
@@ -2745,7 +2745,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>INTROUVABLE (DAKLINZA) + SOFOSBUVIR + INTROUVABLE (VIEKIRAX)</t>
+          <t>Daclatasvir + SOFOSBUVIR + Ombitasvir / Paritaprevir / Ritonavir</t>
         </is>
       </c>
     </row>
@@ -2757,7 +2757,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>INTROUVABLE (BMS 79 002) + PEGINTERFÉRON ALFA-2A + INTROUVABLE (COPEGUS / RÉBÉTOL)</t>
+          <t>INTROUVABLE (BMS 79 002) + PEGINTERFÉRON ALFA-2A + Ribavirine</t>
         </is>
       </c>
     </row>
@@ -2769,7 +2769,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>INTROUVABLE (COPEGUS) + SOFOSBUVIR</t>
+          <t>Ribavirine + SOFOSBUVIR</t>
         </is>
       </c>
     </row>
@@ -2781,7 +2781,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>INTROUVABLE (INCIVO) + INTROUVABLE (INTERFERON) + INTROUVABLE (RÉBÉTOL)</t>
+          <t>Télaprévir + INTROUVABLE (INTERFERON) + Ribavirine</t>
         </is>
       </c>
     </row>
@@ -2793,7 +2793,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>INTROUVABLE (ASUNAPREVIR) + SOFOSBUVIR</t>
+          <t>Asunaprévir + SOFOSBUVIR</t>
         </is>
       </c>
     </row>
@@ -2805,7 +2805,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>LÉDIPASVIR / SOFOSBUVIR + INTROUVABLE (COPEGUS / RÉBÉTOL)</t>
+          <t>LÉDIPASVIR / SOFOSBUVIR + Ribavirine</t>
         </is>
       </c>
     </row>
@@ -2817,7 +2817,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>INTROUVABLE (INCIVO) + INTROUVABLE (INTERFERON) + PEGINTERFÉRON ALFA-2A + INTROUVABLE (COPEGUS / RÉBÉTOL)</t>
+          <t>Télaprévir + INTROUVABLE (INTERFERON) + PEGINTERFÉRON ALFA-2A + Ribavirine</t>
         </is>
       </c>
     </row>
@@ -2841,7 +2841,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>INTROUVABLE (DAKLINZA) + LÉDIPASVIR / SOFOSBUVIR</t>
+          <t>Daclatasvir + LÉDIPASVIR / SOFOSBUVIR</t>
         </is>
       </c>
     </row>
@@ -2865,7 +2865,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>ENTÉCAVIR MONOHYDRATÉ + LÉDIPASVIR / SOFOSBUVIR + INTROUVABLE (COPEGUS / RÉBÉTOL)</t>
+          <t>ENTÉCAVIR MONOHYDRATÉ + LÉDIPASVIR / SOFOSBUVIR + Ribavirine</t>
         </is>
       </c>
     </row>
@@ -2877,7 +2877,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A + INTROUVABLE (COPEGUS) + INTROUVABLE (INCIVO)</t>
+          <t>PEGINTERFÉRON ALFA-2A + Ribavirine + Télaprévir</t>
         </is>
       </c>
     </row>
@@ -2889,7 +2889,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>INTROUVABLE (MK5172) + INTROUVABLE (MK8742) + INTROUVABLE (COPEGUS / RÉBÉTOL)</t>
+          <t>Grazoprevir + Elbasvir + Ribavirine</t>
         </is>
       </c>
     </row>
@@ -2901,7 +2901,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>INTROUVABLE (TELAPREVIR) + INTROUVABLE (RÉBÉTOL) + INTROUVABLE (ROFÉRON)</t>
+          <t>télaprévir + Ribavirine + Interféron alfa-2a</t>
         </is>
       </c>
     </row>
@@ -2913,7 +2913,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>CHLORHYDRATE D'AMANTADINE + INTROUVABLE (RÉBÉTOL) + INTROUVABLE (VIRAFÉRON)</t>
+          <t>CHLORHYDRATE D'AMANTADINE + Ribavirine + Interféron alfa-2b</t>
         </is>
       </c>
     </row>
@@ -2925,7 +2925,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>INTROUVABLE (INTERFERON) + PEGINTERFÉRON ALFA-2A + INTROUVABLE (RÉBÉTOL)</t>
+          <t>INTROUVABLE (INTERFERON) + PEGINTERFÉRON ALFA-2A + Ribavirine</t>
         </is>
       </c>
     </row>
@@ -2937,7 +2937,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>ÉTRAVIRINE + INTROUVABLE (VIRAFÉRON) + INTROUVABLE (RÉBÉTOL)</t>
+          <t>Ribavirine + Interféron alfa-2b + Ribavirine</t>
         </is>
       </c>
     </row>
@@ -2949,7 +2949,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>INTROUVABLE (COPEGUS) + INTROUVABLE (TELAPREVIR)</t>
+          <t>Ribavirine + télaprévir</t>
         </is>
       </c>
     </row>
@@ -2961,7 +2961,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>INTROUVABLE (VIRAFERON PEG) + LAMIVUDINE</t>
+          <t>Péginterféron alfa-2b + LAMIVUDINE</t>
         </is>
       </c>
     </row>
@@ -2973,7 +2973,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>INTROUVABLE (BULEVIRTIDE)</t>
+          <t>bulévirtide</t>
         </is>
       </c>
     </row>
@@ -2985,7 +2985,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>INTROUVABLE (INTRONA) + INTROUVABLE (COPEGUS / RÉBÉTOL)</t>
+          <t>Interféron alfa-2b + Ribavirine</t>
         </is>
       </c>
     </row>
@@ -2997,7 +2997,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>INTROUVABLE (COPEGUS) + INTROUVABLE (INTERFERON) + INTROUVABLE (ROFÉRON) + INTROUVABLE (BOCEPREVIR)</t>
+          <t>Ribavirine + INTROUVABLE (INTERFERON) + Interféron alfa-2a + Boceprevir</t>
         </is>
       </c>
     </row>
@@ -3009,7 +3009,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>INTROUVABLE (INCIVO) + INTROUVABLE (INTERFERON) + ÉTRAVIRINE</t>
+          <t>Télaprévir + INTROUVABLE (INTERFERON) + Ribavirine</t>
         </is>
       </c>
     </row>
@@ -3021,7 +3021,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>INTROUVABLE (INCIVO) + INTROUVABLE (COPEGUS / RÉBÉTOL) + INTROUVABLE (VIRAFERON PEG)</t>
+          <t>Télaprévir + Ribavirine + Péginterféron alfa-2b</t>
         </is>
       </c>
     </row>
@@ -3033,7 +3033,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>INTROUVABLE (ZEPATIER)</t>
+          <t>Elbasvir / Grazoprevir</t>
         </is>
       </c>
     </row>
@@ -3045,7 +3045,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>INTROUVABLE (MYRCLUDEX)</t>
+          <t>Bulevirtide</t>
         </is>
       </c>
     </row>
@@ -3057,7 +3057,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>INTROUVABLE (DAKLINZA) + INTROUVABLE (OLYSIO) + INTROUVABLE (COPEGUS / RÉBÉTOL) + SOFOSBUVIR</t>
+          <t>Daclatasvir + Simeprevir + Ribavirine + SOFOSBUVIR</t>
         </is>
       </c>
     </row>
@@ -3069,7 +3069,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>INTROUVABLE (INTERFERON) + INTROUVABLE (COPEGUS / RÉBÉTOL) + INTROUVABLE (VIRAFERON PEG)</t>
+          <t>INTROUVABLE (INTERFERON) + Ribavirine + Péginterféron alfa-2b</t>
         </is>
       </c>
     </row>
@@ -3081,7 +3081,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>INTROUVABLE (DACLATASVIR) + INTROUVABLE (INTERFERON) + INTROUVABLE (RÉBÉTOL)</t>
+          <t>daclatasvir + INTROUVABLE (INTERFERON) + Ribavirine</t>
         </is>
       </c>
     </row>
@@ -3105,7 +3105,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>INTROUVABLE (COPEGUS / RÉBÉTOL) + INTROUVABLE (ROFÉRON)</t>
+          <t>Ribavirine + Interféron alfa-2a</t>
         </is>
       </c>
     </row>
@@ -3117,7 +3117,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A + INTROUVABLE (COPEGUS) + INTROUVABLE (VICTRELIS)</t>
+          <t>PEGINTERFÉRON ALFA-2A + Ribavirine + Bocéprévir</t>
         </is>
       </c>
     </row>
@@ -3129,7 +3129,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>INTROUVABLE (INTERFERON) + CHLORHYDRATE D'AMANTADINE + INTROUVABLE (COPEGUS / RÉBÉTOL)</t>
+          <t>INTROUVABLE (INTERFERON) + CHLORHYDRATE D'AMANTADINE + Ribavirine</t>
         </is>
       </c>
     </row>
@@ -3141,7 +3141,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>INTROUVABLE (ROFÉRON) + INTROUVABLE (VIRAFERON PEG)</t>
+          <t>Interféron alfa-2a + Péginterféron alfa-2b</t>
         </is>
       </c>
     </row>
@@ -3153,7 +3153,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>INTROUVABLE (INTERFERON) + INTROUVABLE (RÉBÉTOL)</t>
+          <t>INTROUVABLE (INTERFERON) + Ribavirine</t>
         </is>
       </c>
     </row>
@@ -3165,7 +3165,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>INTROUVABLE (INTERFÉRON PEGYLÉ) + INTROUVABLE (RÉBÉTOL)</t>
+          <t>Péginterféron alfa (non précisé) + Ribavirine</t>
         </is>
       </c>
     </row>
@@ -3177,7 +3177,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>INTROUVABLE (MK5172A)</t>
+          <t>Grazoprevir</t>
         </is>
       </c>
     </row>
@@ -3189,7 +3189,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>INTROUVABLE (BULEVIRTIDE) + INTROUVABLE (INTERFERON)</t>
+          <t>bulévirtide + INTROUVABLE (INTERFERON)</t>
         </is>
       </c>
     </row>
@@ -3201,7 +3201,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A + INTROUVABLE (COPEGUS)</t>
+          <t>PEGINTERFÉRON ALFA-2A + Ribavirine</t>
         </is>
       </c>
     </row>
@@ -3213,7 +3213,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>INTROUVABLE (INTERFÉRON PEGYLÉ)</t>
+          <t>Péginterféron alfa (non précisé)</t>
         </is>
       </c>
     </row>
@@ -3225,7 +3225,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>INTROUVABLE (INTRONA) + LAMIVUDINE</t>
+          <t>Interféron alfa-2b + LAMIVUDINE</t>
         </is>
       </c>
     </row>
@@ -3237,7 +3237,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>SULFATE D'AMIKACINE + INTROUVABLE (ETHAMBUTOL) + CHLORHYDRATE DE MOXIFLOXACINE + LINÉZOLIDE</t>
+          <t>SULFATE D'AMIKACINE + éthambutol + CHLORHYDRATE DE MOXIFLOXACINE + LINÉZOLIDE</t>
         </is>
       </c>
     </row>
@@ -3249,7 +3249,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>CHLORHYDRATE DE MOXIFLOXACINE + INTROUVABLE (TMC207)</t>
+          <t>CHLORHYDRATE DE MOXIFLOXACINE + diarylquinolines</t>
         </is>
       </c>
     </row>
@@ -3261,7 +3261,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>INTROUVABLE (ASUNAPREVIR) + INTROUVABLE (DAKLINZA) + PEGINTERFÉRON ALFA-2A + INTROUVABLE (COPEGUS)</t>
+          <t>Asunaprévir + Daclatasvir + PEGINTERFÉRON ALFA-2A + Ribavirine</t>
         </is>
       </c>
     </row>
@@ -3273,7 +3273,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>ENTÉCAVIR MONOHYDRATÉ + INTROUVABLE (RÉBÉTOL) + INTROUVABLE (VIRAFERON PEG)</t>
+          <t>ENTÉCAVIR MONOHYDRATÉ + Ribavirine + Péginterféron alfa-2b</t>
         </is>
       </c>
     </row>
@@ -3285,7 +3285,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>INTROUVABLE (COPEGUS / RÉBÉTOL) + INTROUVABLE (VICTRELIS)</t>
+          <t>Ribavirine + Bocéprévir</t>
         </is>
       </c>
     </row>
@@ -3297,7 +3297,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>INTROUVABLE (DAKLINZA) + INTROUVABLE (SOFOSBUVIR/LEDIPASVIR)</t>
+          <t>Daclatasvir + Sofosbuvir / Ledipasvir</t>
         </is>
       </c>
     </row>
@@ -3309,7 +3309,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>INTROUVABLE (ASUNAPREVIR) + INTROUVABLE (BMS 79 002) + PEGINTERFÉRON ALFA-2A + INTROUVABLE (COPEGUS / RÉBÉTOL)</t>
+          <t>Asunaprévir + INTROUVABLE (BMS 79 002) + PEGINTERFÉRON ALFA-2A + Ribavirine</t>
         </is>
       </c>
     </row>
@@ -3321,7 +3321,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>INTROUVABLE (INTERFERON) + PEGINTERFÉRON ALFA-2A + ÉTRAVIRINE</t>
+          <t>INTROUVABLE (INTERFERON) + PEGINTERFÉRON ALFA-2A + Ribavirine</t>
         </is>
       </c>
     </row>
@@ -3333,7 +3333,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A + INTROUVABLE (COPEGUS) + INTROUVABLE (COPEGUS)</t>
+          <t>PEGINTERFÉRON ALFA-2A + Ribavirine + Ribavirine</t>
         </is>
       </c>
     </row>
@@ -3345,7 +3345,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>INTROUVABLE (COPEGUS) + INTROUVABLE (TELAPREVIR) + INTROUVABLE (VIRAFERON PEG)</t>
+          <t>Ribavirine + télaprévir + Péginterféron alfa-2b</t>
         </is>
       </c>
     </row>
@@ -3357,7 +3357,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>INTROUVABLE (MK5172) + INTROUVABLE (MK8742) + INTROUVABLE (COPEGUS / RÉBÉTOL) + SOFOSBUVIR</t>
+          <t>Grazoprevir + Elbasvir + Ribavirine + SOFOSBUVIR</t>
         </is>
       </c>
     </row>
@@ -3369,7 +3369,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>INTROUVABLE (RÉBÉTOL) + INTROUVABLE (VICTRELIS) + INTROUVABLE (VIRAFERON PEG)</t>
+          <t>Ribavirine + Bocéprévir + Péginterféron alfa-2b</t>
         </is>
       </c>
     </row>
@@ -3381,7 +3381,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>INTROUVABLE (DAKLINZA) + INTROUVABLE (COPEGUS / RÉBÉTOL) + INTROUVABLE (SIMEPREVIR) + SOFOSBUVIR</t>
+          <t>Daclatasvir + Ribavirine + SIMEPREVIR + SOFOSBUVIR</t>
         </is>
       </c>
     </row>
@@ -3405,7 +3405,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>INTROUVABLE (DAKLINZA) + INTROUVABLE (INTRONA) + SOFOSBUVIR</t>
+          <t>Daclatasvir + Interféron alfa-2b + SOFOSBUVIR</t>
         </is>
       </c>
     </row>
@@ -3441,7 +3441,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>INTROUVABLE (INTERFERON) + INTROUVABLE (COPEGUS)</t>
+          <t>INTROUVABLE (INTERFERON) + Ribavirine</t>
         </is>
       </c>
     </row>
@@ -3453,7 +3453,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>EMTRICITABINE / TÉNOFOVIR DISOPROXIL (FUMARATE DE) + INTROUVABLE (ZEPATIER)</t>
+          <t>EMTRICITABINE / TÉNOFOVIR DISOPROXIL (FUMARATE DE) + Elbasvir / Grazoprevir</t>
         </is>
       </c>
     </row>
@@ -3465,7 +3465,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>INTROUVABLE (COPEGUS / RÉBÉTOL) + INTROUVABLE (VICTRELIS) + INTROUVABLE (VIRAFERON PEG)</t>
+          <t>Ribavirine + Bocéprévir + Péginterféron alfa-2b</t>
         </is>
       </c>
     </row>
@@ -3477,7 +3477,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>INTROUVABLE (DAKLINZA) + PEGINTERFÉRON ALFA-2A + INTROUVABLE (COPEGUS)</t>
+          <t>Daclatasvir + PEGINTERFÉRON ALFA-2A + Ribavirine</t>
         </is>
       </c>
     </row>
@@ -3489,7 +3489,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>INTROUVABLE (COPEGUS) + PEGINTERFÉRON ALFA-2A + INTROUVABLE (BMS 79 002)</t>
+          <t>Ribavirine + PEGINTERFÉRON ALFA-2A + INTROUVABLE (BMS 79 002)</t>
         </is>
       </c>
     </row>
@@ -3501,7 +3501,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>INTROUVABLE (INCIVO) + PEGINTERFÉRON ALFA-2A + INTROUVABLE (COPEGUS / RÉBÉTOL) + SOFOSBUVIR</t>
+          <t>Télaprévir + PEGINTERFÉRON ALFA-2A + Ribavirine + SOFOSBUVIR</t>
         </is>
       </c>
     </row>
@@ -3537,7 +3537,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A + INTROUVABLE (RÉBÉTOL) + INTROUVABLE (VICTRELIS)</t>
+          <t>PEGINTERFÉRON ALFA-2A + Ribavirine + Bocéprévir</t>
         </is>
       </c>
     </row>
@@ -3549,7 +3549,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>ÉTRAVIRINE + INTROUVABLE (VIRAFÉRON)</t>
+          <t>Ribavirine + Interféron alfa-2b</t>
         </is>
       </c>
     </row>
@@ -3561,7 +3561,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A + INTROUVABLE (COPEGUS / RÉBÉTOL) + INTROUVABLE (RÉBÉTOL)</t>
+          <t>PEGINTERFÉRON ALFA-2A + Ribavirine + Ribavirine</t>
         </is>
       </c>
     </row>
@@ -3573,7 +3573,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>INTROUVABLE (DAKLINZA) + INTROUVABLE (INTERFERON) + INTROUVABLE (COPEGUS / RÉBÉTOL)</t>
+          <t>Daclatasvir + INTROUVABLE (INTERFERON) + Ribavirine</t>
         </is>
       </c>
     </row>
@@ -3585,7 +3585,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A + INTROUVABLE (RÉBÉTOL) + INTROUVABLE (VIRAFERON PEG)</t>
+          <t>PEGINTERFÉRON ALFA-2A + Ribavirine + Péginterféron alfa-2b</t>
         </is>
       </c>
     </row>
@@ -3597,7 +3597,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>INTROUVABLE (INTERFERON) + CHLORHYDRATE D'AMANTADINE + INTROUVABLE (RÉBÉTOL)</t>
+          <t>INTROUVABLE (INTERFERON) + CHLORHYDRATE D'AMANTADINE + Ribavirine</t>
         </is>
       </c>
     </row>
@@ -3609,7 +3609,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>INTROUVABLE (DASABUVIR) + INTROUVABLE (ABT-267) + INTROUVABLE (ABT- 450/ R) + INTROUVABLE (COPEGUS / RÉBÉTOL) + SOFOSBUVIR</t>
+          <t>dasabuvir + Ombitasvir + Lopinavir / ritonavir + Ribavirine + SOFOSBUVIR</t>
         </is>
       </c>
     </row>
@@ -3621,7 +3621,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>INTROUVABLE (COPEGUS) + PEGINTERFÉRON ALFA-2A + INTROUVABLE (BOCEPREVIR)</t>
+          <t>Ribavirine + PEGINTERFÉRON ALFA-2A + Boceprevir</t>
         </is>
       </c>
     </row>
@@ -3633,7 +3633,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>INTROUVABLE (ASUNAPREVIR) + INTROUVABLE (DACLATASVIR) + PEGINTERFÉRON ALFA-2A + INTROUVABLE (COPEGUS)</t>
+          <t>Asunaprévir + daclatasvir + PEGINTERFÉRON ALFA-2A + Ribavirine</t>
         </is>
       </c>
     </row>
@@ -3645,7 +3645,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A + INTROUVABLE (VIRAFERON PEG)</t>
+          <t>PEGINTERFÉRON ALFA-2A + Péginterféron alfa-2b</t>
         </is>
       </c>
     </row>
@@ -3657,7 +3657,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>INTROUVABLE (ASUNAPREVIR) + INTROUVABLE (BMS 79 002) + PEGINTERFÉRON ALFA-2A + INTROUVABLE (RÉBÉTOL)</t>
+          <t>Asunaprévir + INTROUVABLE (BMS 79 002) + PEGINTERFÉRON ALFA-2A + Ribavirine</t>
         </is>
       </c>
     </row>
@@ -3669,7 +3669,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>CHLORHYDRATE D'AMANTADINE + INTROUVABLE (COPEGUS / RÉBÉTOL)</t>
+          <t>CHLORHYDRATE D'AMANTADINE + Ribavirine</t>
         </is>
       </c>
     </row>
@@ -3681,7 +3681,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>ENTÉCAVIR MONOHYDRATÉ + INTROUVABLE (COPEGUS / RÉBÉTOL)</t>
+          <t>ENTÉCAVIR MONOHYDRATÉ + Ribavirine</t>
         </is>
       </c>
     </row>
@@ -3693,7 +3693,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>INTROUVABLE (OMBITASVIR/PARITAPREVIR/RITONAVIR)</t>
+          <t>OMBITASVIR/PARITAPREVIR/RITONAVIR</t>
         </is>
       </c>
     </row>
@@ -3705,7 +3705,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>INTROUVABLE (COPEGUS) + PEGINTERFÉRON ALFA-2A + INTROUVABLE (BI 207127 ANTIPOLYMÉRASE) + INTROUVABLE (DACLATASVIR)</t>
+          <t>Ribavirine + PEGINTERFÉRON ALFA-2A + Deleobuvir + daclatasvir</t>
         </is>
       </c>
     </row>
@@ -3717,7 +3717,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>INTROUVABLE (DACLATASVIR) + INTROUVABLE (INTERFERON) + INTROUVABLE (COPEGUS / RÉBÉTOL)</t>
+          <t>daclatasvir + INTROUVABLE (INTERFERON) + Ribavirine</t>
         </is>
       </c>
     </row>
@@ -3729,7 +3729,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A + INTROUVABLE (COPEGUS / RÉBÉTOL) + LAMIVUDINE</t>
+          <t>PEGINTERFÉRON ALFA-2A + Ribavirine + LAMIVUDINE</t>
         </is>
       </c>
     </row>
@@ -3741,7 +3741,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A + INTROUVABLE (COPEGUS / RÉBÉTOL) + LAMIVUDINE</t>
+          <t>PEGINTERFÉRON ALFA-2A + Ribavirine + LAMIVUDINE</t>
         </is>
       </c>
     </row>
@@ -3753,7 +3753,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>INTROUVABLE (INCIVO) + PEGINTERFÉRON ALFA-2A + INTROUVABLE (COPEGUS / RÉBÉTOL) + LAMIVUDINE</t>
+          <t>Télaprévir + PEGINTERFÉRON ALFA-2A + Ribavirine + LAMIVUDINE</t>
         </is>
       </c>
     </row>
@@ -3765,7 +3765,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>INTROUVABLE (HEPSERA) + INTROUVABLE (INTERFERON)</t>
+          <t>Adéfovir dipivoxil + INTROUVABLE (INTERFERON)</t>
         </is>
       </c>
     </row>
@@ -3777,7 +3777,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>INTROUVABLE (DAKLINZA) + INTROUVABLE (SIMEPREVIR)</t>
+          <t>Daclatasvir + SIMEPREVIR</t>
         </is>
       </c>
     </row>
@@ -3789,7 +3789,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>INTROUVABLE (BI 201335 ANTIPROTÉASE) + INTROUVABLE (BI 207127 ANTIPOLYMÉRASE)</t>
+          <t>Deleobuvir + Deleobuvir</t>
         </is>
       </c>
     </row>
@@ -3801,7 +3801,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>INTROUVABLE (DAKLINZA) + SOFOSBUVIR / VELPATASVIR</t>
+          <t>Daclatasvir + SOFOSBUVIR / VELPATASVIR</t>
         </is>
       </c>
     </row>
@@ -3813,7 +3813,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>INTROUVABLE (COPEGUS) + INTROUVABLE (INTRONA) + PEGINTERFÉRON ALFA-2A</t>
+          <t>Ribavirine + Interféron alfa-2b + PEGINTERFÉRON ALFA-2A</t>
         </is>
       </c>
     </row>
@@ -3825,7 +3825,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>INTROUVABLE (COPEGUS) + INTROUVABLE (INTERFERON) + PEGINTERFÉRON ALFA-2A</t>
+          <t>Ribavirine + INTROUVABLE (INTERFERON) + PEGINTERFÉRON ALFA-2A</t>
         </is>
       </c>
     </row>
@@ -3849,7 +3849,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>INTROUVABLE (TELAPREVIR) + PEGINTERFÉRON ALFA-2A</t>
+          <t>télaprévir + PEGINTERFÉRON ALFA-2A</t>
         </is>
       </c>
     </row>
@@ -3861,7 +3861,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>EMTRICITABINE + INTROUVABLE (HEPSERA)</t>
+          <t>EMTRICITABINE + Adéfovir dipivoxil</t>
         </is>
       </c>
     </row>

--- a/Hep/data/out/Med_Hep_dci.xlsx
+++ b/Hep/data/out/Med_Hep_dci.xlsx
@@ -489,7 +489,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>LÉDIPASVIR / SOFOSBUVIR</t>
+          <t>LÉDIPASVIR; SOFOSBUVIR</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>SOFOSBUVIR / VELPATASVIR</t>
+          <t>SOFOSBUVIR; VELPATASVIR</t>
         </is>
       </c>
     </row>
@@ -573,7 +573,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Adéfovir dipivoxil</t>
+          <t>ADÉFOVIR DIPIVOXIL</t>
         </is>
       </c>
     </row>
@@ -597,7 +597,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>EMTRICITABINE / FUMARATE DE TÉNOFOVIR DISOPROXIL / RILPIVIRINE (CHLORHYDRATE DE) + Ombitasvir / Paritaprevir / Ritonavir</t>
+          <t>EMTRICITABINE; FUMARATE DE TÉNOFOVIR DISOPROXIL; RILPIVIRINE (CHLORHYDRATE DE) + Ombitasvir / Paritaprevir / Ritonavir</t>
         </is>
       </c>
     </row>
@@ -609,7 +609,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>SOFOSBUVIR / VELPATASVIR</t>
+          <t>SOFOSBUVIR; VELPATASVIR</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>GLÉCAPRÉVIR / PIBRENTASVIR</t>
+          <t>GLÉCAPRÉVIR; PIBRENTASVIR</t>
         </is>
       </c>
     </row>
@@ -885,7 +885,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Elbasvir / Grazoprevir</t>
+          <t>ELBASVIR; GRAZOPRÉVIR MONOHYDRATÉ</t>
         </is>
       </c>
     </row>
@@ -1101,7 +1101,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>SOFOSBUVIR / VELPATASVIR / VOXILAPRÉVIR</t>
+          <t>SOFOSBUVIR; VELPATASVIR; VOXILAPRÉVIR</t>
         </is>
       </c>
     </row>
@@ -1161,7 +1161,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Asunaprévir + daclatasvir + PEGINTERFÉRON ALFA-2A + Ribavirine</t>
+          <t>Asunaprévir + daclatasvir + PEGINTERFÉRON ALFA-2A + RIBAVIRINE</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Adéfovir dipivoxil + PEGINTERFÉRON ALFA-2A</t>
+          <t>ADÉFOVIR DIPIVOXIL + PEGINTERFÉRON ALFA-2A</t>
         </is>
       </c>
     </row>
@@ -1377,7 +1377,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A + Ribavirine</t>
+          <t>PEGINTERFÉRON ALFA-2A + RIBAVIRINE</t>
         </is>
       </c>
     </row>
@@ -1389,7 +1389,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>LÉDIPASVIR / SOFOSBUVIR + Ribavirine</t>
+          <t>LÉDIPASVIR; SOFOSBUVIR + Ribavirine</t>
         </is>
       </c>
     </row>
@@ -1401,7 +1401,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>EMTRICITABINE / FUMARATE DE TÉNOFOVIR DISOPROXIL / RILPIVIRINE (CHLORHYDRATE DE) + Ombitasvir + Lopinavir / ritonavir + Ribavirine + SOFOSBUVIR</t>
+          <t>EMTRICITABINE; FUMARATE DE TÉNOFOVIR DISOPROXIL; RILPIVIRINE (CHLORHYDRATE DE) + Ombitasvir + CONCENTRAT DE VITAMINE A SYNTHÉTIQUE, FORME HUILEUSE + Ribavirine + SOFOSBUVIR</t>
         </is>
       </c>
     </row>
@@ -1413,7 +1413,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>LÉDIPASVIR / SOFOSBUVIR</t>
+          <t>LÉDIPASVIR; SOFOSBUVIR</t>
         </is>
       </c>
     </row>
@@ -1473,7 +1473,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>EMTRICITABINE / FUMARATE DE TÉNOFOVIR DISOPROXIL / RILPIVIRINE (CHLORHYDRATE DE) + Ribavirine + Ombitasvir / Paritaprevir / Ritonavir</t>
+          <t>EMTRICITABINE; FUMARATE DE TÉNOFOVIR DISOPROXIL; RILPIVIRINE (CHLORHYDRATE DE) + Ribavirine + Ombitasvir / Paritaprevir / Ritonavir</t>
         </is>
       </c>
     </row>
@@ -1533,7 +1533,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>daclatasvir + INTROUVABLE (INTERFERON) + Ribavirine</t>
+          <t>daclatasvir + INTROUVABLE (INTERFERON) + RIBAVIRINE</t>
         </is>
       </c>
     </row>
@@ -1545,7 +1545,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Télaprévir + PEGINTERFÉRON ALFA-2A + Ribavirine</t>
+          <t>Télaprévir + PEGINTERFÉRON ALFA-2A + RIBAVIRINE</t>
         </is>
       </c>
     </row>
@@ -1581,7 +1581,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>INTROUVABLE (INTERFERON) + Ribavirine</t>
+          <t>INTROUVABLE (INTERFERON) + RIBAVIRINE</t>
         </is>
       </c>
     </row>
@@ -1593,7 +1593,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>SOFOSBUVIR / VELPATASVIR + Ribavirine</t>
+          <t>SOFOSBUVIR; VELPATASVIR + Ribavirine</t>
         </is>
       </c>
     </row>
@@ -1653,7 +1653,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Ribavirine + SOFOSBUVIR / VELPATASVIR</t>
+          <t>Ribavirine + SOFOSBUVIR; VELPATASVIR</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Ribavirine + Sofosbuvir / Ledipasvir</t>
+          <t>RIBAVIRINE + Sofosbuvir / Ledipasvir</t>
         </is>
       </c>
     </row>
@@ -1689,7 +1689,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Ribavirine + Péginterféron alfa-2b</t>
+          <t>RIBAVIRINE + Péginterféron alfa-2b</t>
         </is>
       </c>
     </row>
@@ -1749,7 +1749,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Adéfovir dipivoxil + ENTÉCAVIR MONOHYDRATÉ</t>
+          <t>ADÉFOVIR DIPIVOXIL + ENTÉCAVIR MONOHYDRATÉ</t>
         </is>
       </c>
     </row>
@@ -1761,7 +1761,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Glecaprevir + Lopinavir / ritonavir</t>
+          <t>Glecaprevir + CONCENTRAT DE VITAMINE A SYNTHÉTIQUE, FORME HUILEUSE</t>
         </is>
       </c>
     </row>
@@ -1857,7 +1857,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Adéfovir dipivoxil + LAMIVUDINE</t>
+          <t>ADÉFOVIR DIPIVOXIL + LAMIVUDINE</t>
         </is>
       </c>
     </row>
@@ -1989,7 +1989,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>GLÉCAPRÉVIR / PIBRENTASVIR + Ribavirine + SOFOSBUVIR</t>
+          <t>GLÉCAPRÉVIR; PIBRENTASVIR + Ribavirine + SOFOSBUVIR</t>
         </is>
       </c>
     </row>
@@ -2025,7 +2025,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Ribavirine + SOFOSBUVIR + Elbasvir / Grazoprevir</t>
+          <t>Ribavirine + SOFOSBUVIR + ELBASVIR; GRAZOPRÉVIR MONOHYDRATÉ</t>
         </is>
       </c>
     </row>
@@ -2073,7 +2073,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>EMTRICITABINE / TÉNOFOVIR DISOPROXIL (FUMARATE DE) + DOLUTÉGRAVIR SODIQUE</t>
+          <t>EMTRICITABINE; TÉNOFOVIR DISOPROXIL (FUMARATE DE) + DOLUTÉGRAVIR SODIQUE</t>
         </is>
       </c>
     </row>
@@ -2097,7 +2097,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Ribavirine + INTROUVABLE (INTERFERON)</t>
+          <t>RIBAVIRINE + INTROUVABLE (INTERFERON)</t>
         </is>
       </c>
     </row>
@@ -2193,7 +2193,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>SOFOSBUVIR + Elbasvir / Grazoprevir</t>
+          <t>SOFOSBUVIR + ELBASVIR; GRAZOPRÉVIR MONOHYDRATÉ</t>
         </is>
       </c>
     </row>
@@ -2241,7 +2241,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>LÉDIPASVIR / SOFOSBUVIR + INTROUVABLE (INTERFERON) + Ribavirine</t>
+          <t>LÉDIPASVIR; SOFOSBUVIR + INTROUVABLE (INTERFERON) + Ribavirine</t>
         </is>
       </c>
     </row>
@@ -2253,7 +2253,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
     </row>
@@ -2265,7 +2265,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Adéfovir dipivoxil + Péginterféron alfa-2b + LAMIVUDINE</t>
+          <t>ADÉFOVIR DIPIVOXIL + Péginterféron alfa-2b + LAMIVUDINE</t>
         </is>
       </c>
     </row>
@@ -2289,7 +2289,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>LÉDIPASVIR / SOFOSBUVIR + PEGINTERFÉRON ALFA-2A + Ribavirine</t>
+          <t>LÉDIPASVIR; SOFOSBUVIR + PEGINTERFÉRON ALFA-2A + Ribavirine</t>
         </is>
       </c>
     </row>
@@ -2301,7 +2301,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>ENTÉCAVIR MONOHYDRATÉ + Adéfovir dipivoxil</t>
+          <t>ENTÉCAVIR MONOHYDRATÉ + ADÉFOVIR DIPIVOXIL</t>
         </is>
       </c>
     </row>
@@ -2349,7 +2349,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Ribavirine + SOFOSBUVIR / VELPATASVIR / VOXILAPRÉVIR</t>
+          <t>Ribavirine + SOFOSBUVIR; VELPATASVIR; VOXILAPRÉVIR</t>
         </is>
       </c>
     </row>
@@ -2373,7 +2373,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>ENTÉCAVIR MONOHYDRATÉ + GLÉCAPRÉVIR / PIBRENTASVIR</t>
+          <t>ENTÉCAVIR MONOHYDRATÉ + GLÉCAPRÉVIR; PIBRENTASVIR</t>
         </is>
       </c>
     </row>
@@ -2517,7 +2517,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Ribavirine + Interféron alfa-2a</t>
+          <t>RIBAVIRINE + Interféron alfa-2a</t>
         </is>
       </c>
     </row>
@@ -2529,7 +2529,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Daclatasvir + Ribavirine + SOFOSBUVIR / VELPATASVIR</t>
+          <t>Daclatasvir + Ribavirine + SOFOSBUVIR; VELPATASVIR</t>
         </is>
       </c>
     </row>
@@ -2541,7 +2541,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>EMTRICITABINE / TÉNOFOVIR DISOPROXIL (FUMARATE DE) + Ribavirine + SOFOSBUVIR</t>
+          <t>EMTRICITABINE; TÉNOFOVIR DISOPROXIL (FUMARATE DE) + Ribavirine + SOFOSBUVIR</t>
         </is>
       </c>
     </row>
@@ -2601,7 +2601,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Ombitasvir + Lopinavir / ritonavir + Ribavirine</t>
+          <t>Ombitasvir + CONCENTRAT DE VITAMINE A SYNTHÉTIQUE, FORME HUILEUSE + Ribavirine</t>
         </is>
       </c>
     </row>
@@ -2613,7 +2613,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>SOFOSBUVIR / VELPATASVIR + PEGINTERFÉRON ALFA-2A + Ribavirine</t>
+          <t>SOFOSBUVIR; VELPATASVIR + PEGINTERFÉRON ALFA-2A + Ribavirine</t>
         </is>
       </c>
     </row>
@@ -2661,7 +2661,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A + Ribavirine + Bocéprévir</t>
+          <t>PEGINTERFÉRON ALFA-2A + RIBAVIRINE + Bocéprévir</t>
         </is>
       </c>
     </row>
@@ -2709,7 +2709,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Elbasvir / Grazoprevir</t>
+          <t>ELBASVIR; GRAZOPRÉVIR MONOHYDRATÉ</t>
         </is>
       </c>
     </row>
@@ -2805,7 +2805,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>LÉDIPASVIR / SOFOSBUVIR + Ribavirine</t>
+          <t>LÉDIPASVIR; SOFOSBUVIR + Ribavirine</t>
         </is>
       </c>
     </row>
@@ -2829,7 +2829,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>ENTÉCAVIR MONOHYDRATÉ + SOFOSBUVIR / VELPATASVIR</t>
+          <t>ENTÉCAVIR MONOHYDRATÉ + SOFOSBUVIR; VELPATASVIR</t>
         </is>
       </c>
     </row>
@@ -2841,7 +2841,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Daclatasvir + LÉDIPASVIR / SOFOSBUVIR</t>
+          <t>Daclatasvir + LÉDIPASVIR; SOFOSBUVIR</t>
         </is>
       </c>
     </row>
@@ -2853,7 +2853,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>GLÉCAPRÉVIR / PIBRENTASVIR + SOFOSBUVIR</t>
+          <t>GLÉCAPRÉVIR; PIBRENTASVIR + SOFOSBUVIR</t>
         </is>
       </c>
     </row>
@@ -2865,7 +2865,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>ENTÉCAVIR MONOHYDRATÉ + LÉDIPASVIR / SOFOSBUVIR + Ribavirine</t>
+          <t>ENTÉCAVIR MONOHYDRATÉ + LÉDIPASVIR; SOFOSBUVIR + Ribavirine</t>
         </is>
       </c>
     </row>
@@ -2937,7 +2937,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Ribavirine + Interféron alfa-2b + Ribavirine</t>
+          <t>RIBAVIRINE + Interféron alfa-2b + Ribavirine</t>
         </is>
       </c>
     </row>
@@ -3009,7 +3009,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Télaprévir + INTROUVABLE (INTERFERON) + Ribavirine</t>
+          <t>Télaprévir + INTROUVABLE (INTERFERON) + RIBAVIRINE</t>
         </is>
       </c>
     </row>
@@ -3033,7 +3033,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Elbasvir / Grazoprevir</t>
+          <t>ELBASVIR; GRAZOPRÉVIR MONOHYDRATÉ</t>
         </is>
       </c>
     </row>
@@ -3237,7 +3237,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>SULFATE D'AMIKACINE + éthambutol + CHLORHYDRATE DE MOXIFLOXACINE + LINÉZOLIDE</t>
+          <t>CONCENTRAT DE VITAMINE A SYNTHÉTIQUE, FORME HUILEUSE + éthambutol + CHLORHYDRATE DE MOXIFLOXACINE + ADRENALINUM POUR PRÉPARATIONS HOMÉOPATHIQUES; ALOE POUR PRÉPARATIONS HOMÉOPATHIQUES; CALCAREA HYPOPHOSPHOROSA POUR PRÉPARATIONS HOMÉOPATHIQUES; CHAMOMILLA POUR PRÉPARATIONS HOMÉOPATHIQUES; CHINA RUBRA POUR PRÉPARATIONS HOMÉOPATHIQUES; CIMICIFUGA POUR PRÉPARATIONS HOMÉOPATHIQUES; CUPRUM SULFURICUM POUR PRÉPARATIONS HOMÉOPATHIQUES; GOSSYPIUM POUR PRÉPARATIONS HOMÉOPATHIQUES; HYDRASTIS CANADENSIS POUR PRÉPARATIONS HOMÉOPATHIQUES; MAGNESIA MURIATICA POUR PRÉPARATIONS HOMÉOPATHIQUES; SECALE CORNUTUM POUR PRÉPARATIONS HOMÉOPATHIQUES; SENECIO AUREUS POUR PRÉPARATIONS HOMÉOPATHIQUES; VISCUM ALBUM POUR PRÉPARATIONS HOMÉOPATHIQUES</t>
         </is>
       </c>
     </row>
@@ -3321,7 +3321,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>INTROUVABLE (INTERFERON) + PEGINTERFÉRON ALFA-2A + Ribavirine</t>
+          <t>INTROUVABLE (INTERFERON) + PEGINTERFÉRON ALFA-2A + RIBAVIRINE</t>
         </is>
       </c>
     </row>
@@ -3393,7 +3393,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>SOFOSBUVIR / VELPATASVIR + SOFOSBUVIR</t>
+          <t>SOFOSBUVIR; VELPATASVIR + SOFOSBUVIR</t>
         </is>
       </c>
     </row>
@@ -3417,7 +3417,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>ENTÉCAVIR MONOHYDRATÉ + LÉDIPASVIR / SOFOSBUVIR</t>
+          <t>ENTÉCAVIR MONOHYDRATÉ + LÉDIPASVIR; SOFOSBUVIR</t>
         </is>
       </c>
     </row>
@@ -3429,7 +3429,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>COBICISTAT / ELVITÉGRAVIR / EMTRICITABINE / FUMARATE DE TÉNOFOVIR DISOPROXIL</t>
+          <t>COBICISTAT; ELVITÉGRAVIR; EMTRICITABINE; FUMARATE DE TÉNOFOVIR DISOPROXIL</t>
         </is>
       </c>
     </row>
@@ -3453,7 +3453,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>EMTRICITABINE / TÉNOFOVIR DISOPROXIL (FUMARATE DE) + Elbasvir / Grazoprevir</t>
+          <t>EMTRICITABINE; TÉNOFOVIR DISOPROXIL (FUMARATE DE) + ELBASVIR; GRAZOPRÉVIR MONOHYDRATÉ</t>
         </is>
       </c>
     </row>
@@ -3513,7 +3513,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>EMTRICITABINE / TÉNOFOVIR DISOPROXIL (FUMARATE DE)</t>
+          <t>EMTRICITABINE; TÉNOFOVIR DISOPROXIL (FUMARATE DE)</t>
         </is>
       </c>
     </row>
@@ -3525,7 +3525,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>EMTRICITABINE / TÉNOFOVIR DISOPROXIL (FUMARATE DE)</t>
+          <t>EMTRICITABINE; TÉNOFOVIR DISOPROXIL (FUMARATE DE)</t>
         </is>
       </c>
     </row>
@@ -3549,7 +3549,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Ribavirine + Interféron alfa-2b</t>
+          <t>RIBAVIRINE + Interféron alfa-2b</t>
         </is>
       </c>
     </row>
@@ -3609,7 +3609,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>dasabuvir + Ombitasvir + Lopinavir / ritonavir + Ribavirine + SOFOSBUVIR</t>
+          <t>dasabuvir + Ombitasvir + CONCENTRAT DE VITAMINE A SYNTHÉTIQUE, FORME HUILEUSE + Ribavirine + SOFOSBUVIR</t>
         </is>
       </c>
     </row>
@@ -3765,7 +3765,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>Adéfovir dipivoxil + INTROUVABLE (INTERFERON)</t>
+          <t>ADÉFOVIR DIPIVOXIL + INTROUVABLE (INTERFERON)</t>
         </is>
       </c>
     </row>
@@ -3801,7 +3801,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>Daclatasvir + SOFOSBUVIR / VELPATASVIR</t>
+          <t>Daclatasvir + SOFOSBUVIR; VELPATASVIR</t>
         </is>
       </c>
     </row>
@@ -3861,7 +3861,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>EMTRICITABINE + Adéfovir dipivoxil</t>
+          <t>EMTRICITABINE + ADÉFOVIR DIPIVOXIL</t>
         </is>
       </c>
     </row>

--- a/Hep/data/out/Med_Hep_dci.xlsx
+++ b/Hep/data/out/Med_Hep_dci.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ribavirine + PEGINTERFÉRON ALFA-2A</t>
+          <t>RIBAVIRINE + PEGINTERFERON ALFA-2A</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ribavirine + Péginterféron alfa-2b</t>
+          <t>RIBAVIRINE + PEGINTERFERON ALFA-2B</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Péginterféron alfa-2b</t>
+          <t>PEGINTERFERON ALFA-2B</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>LÉDIPASVIR; SOFOSBUVIR</t>
+          <t>LEDIPASVIR; SOFOSBUVIR</t>
         </is>
       </c>
     </row>
@@ -513,7 +513,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ENTÉCAVIR MONOHYDRATÉ</t>
+          <t>ENTECAVIR</t>
         </is>
       </c>
     </row>
@@ -525,7 +525,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Interféron alfa-2b</t>
+          <t>INTERFERON ALFA-2B</t>
         </is>
       </c>
     </row>
@@ -537,7 +537,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>INTROUVABLE (INTERFERON) + Ribavirine</t>
+          <t>INTROUVABLE (INTERFERON) + RIBAVIRINE</t>
         </is>
       </c>
     </row>
@@ -549,7 +549,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A + Ribavirine</t>
+          <t>PEGINTERFERON ALFA-2A + RIBAVIRINE</t>
         </is>
       </c>
     </row>
@@ -573,7 +573,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ADÉFOVIR DIPIVOXIL</t>
+          <t>ADEFOVIR DIPIVOXIL</t>
         </is>
       </c>
     </row>
@@ -585,7 +585,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Ribavirine + Péginterféron alfa-2b</t>
+          <t>RIBAVIRINE + PEGINTERFERON ALFA-2B</t>
         </is>
       </c>
     </row>
@@ -597,7 +597,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>EMTRICITABINE; FUMARATE DE TÉNOFOVIR DISOPROXIL; RILPIVIRINE (CHLORHYDRATE DE) + Ombitasvir / Paritaprevir / Ritonavir</t>
+          <t>EMTRICITABINE;  TENOFOVIR DISOPROXIL; RILPIVIRINE + OMBITASVIR / PARITAPREVIR / RITONAVIR</t>
         </is>
       </c>
     </row>
@@ -621,7 +621,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Télaprévir + PEGINTERFÉRON ALFA-2A + Ribavirine</t>
+          <t>TELAPREVIR + PEGINTERFERON ALFA-2A + RIBAVIRINE</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Sofosbuvir / Ledipasvir</t>
+          <t>SOFOSBUVIR ;LEDIPASVIR</t>
         </is>
       </c>
     </row>
@@ -645,7 +645,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A + Ribavirine</t>
+          <t>PEGINTERFERON ALFA-2A + RIBAVIRINE</t>
         </is>
       </c>
     </row>
@@ -657,7 +657,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Daclatasvir + SOFOSBUVIR</t>
+          <t>DACLATASVIR + SOFOSBUVIR</t>
         </is>
       </c>
     </row>
@@ -669,7 +669,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>CHLORHYDRATE D'AMANTADINE + Ribavirine + Péginterféron alfa-2b</t>
+          <t>AMANTADINE + RIBAVIRINE + PEGINTERFERON ALFA-2B</t>
         </is>
       </c>
     </row>
@@ -681,7 +681,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Ribavirine + Péginterféron alfa-2b</t>
+          <t>RIBAVIRINE + PEGINTERFERON ALFA-2B</t>
         </is>
       </c>
     </row>
@@ -693,7 +693,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Sofosbuvir / Ledipasvir + Ribavirine</t>
+          <t>SOFOSBUVIR ;LEDIPASVIR + RIBAVIRINE</t>
         </is>
       </c>
     </row>
@@ -705,7 +705,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Télaprévir + Ribavirine</t>
+          <t>TELAPREVIR + RIBAVIRINE</t>
         </is>
       </c>
     </row>
@@ -717,7 +717,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Ribavirine + Télaprévir + PEGINTERFÉRON ALFA-2A</t>
+          <t>RIBAVIRINE + TELAPREVIR + PEGINTERFERON ALFA-2A</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A + Ribavirine</t>
+          <t>PEGINTERFERON ALFA-2A + RIBAVIRINE</t>
         </is>
       </c>
     </row>
@@ -753,7 +753,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Ribavirine + Interféron alfa-2b</t>
+          <t>RIBAVIRINE + INTERFERON ALFA-2B</t>
         </is>
       </c>
     </row>
@@ -765,7 +765,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Ribavirine + Péginterféron alfa-2b</t>
+          <t>RIBAVIRINE + PEGINTERFERON ALFA-2B</t>
         </is>
       </c>
     </row>
@@ -777,7 +777,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A + Ribavirine + SOFOSBUVIR</t>
+          <t>PEGINTERFERON ALFA-2A + RIBAVIRINE + SOFOSBUVIR</t>
         </is>
       </c>
     </row>
@@ -789,7 +789,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>INTROUVABLE (INTERFERON) + Péginterféron alfa-2b</t>
+          <t>INTROUVABLE (INTERFERON) + PEGINTERFERON ALFA-2B</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>GLÉCAPRÉVIR; PIBRENTASVIR</t>
+          <t>GLECAPREVIR; PIBRENTASVIR</t>
         </is>
       </c>
     </row>
@@ -813,7 +813,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Interféron alfa-2b + Ribavirine</t>
+          <t>INTERFERON ALFA-2B + RIBAVIRINE</t>
         </is>
       </c>
     </row>
@@ -825,7 +825,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>télaprévir + Ribavirine + Péginterféron alfa-2b</t>
+          <t>TELAPREVIR + RIBAVIRINE + PEGINTERFERON ALFA-2B</t>
         </is>
       </c>
     </row>
@@ -837,7 +837,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Asunaprévir + Ribavirine + daclatasvir + PEGINTERFÉRON ALFA-2A</t>
+          <t>ASUNAPREVIR + RIBAVIRINE + DACLATASVIR + PEGINTERFERON ALFA-2A</t>
         </is>
       </c>
     </row>
@@ -849,7 +849,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Ribavirine + Péginterféron alfa-2b</t>
+          <t>RIBAVIRINE + PEGINTERFERON ALFA-2B</t>
         </is>
       </c>
     </row>
@@ -861,7 +861,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Interféron alfa-2b</t>
+          <t>INTERFERON ALFA-2B</t>
         </is>
       </c>
     </row>
@@ -873,7 +873,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Ribavirine + Ombitasvir / Paritaprevir / Ritonavir</t>
+          <t>RIBAVIRINE + OMBITASVIR / PARITAPREVIR / RITONAVIR</t>
         </is>
       </c>
     </row>
@@ -885,7 +885,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>ELBASVIR; GRAZOPRÉVIR MONOHYDRATÉ</t>
+          <t>ELBASVIR; GRAZOPREVIR</t>
         </is>
       </c>
     </row>
@@ -897,7 +897,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Daclatasvir + Ribavirine + SOFOSBUVIR</t>
+          <t>DACLATASVIR + RIBAVIRINE + SOFOSBUVIR</t>
         </is>
       </c>
     </row>
@@ -909,7 +909,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A</t>
+          <t>PEGINTERFERON ALFA-2A</t>
         </is>
       </c>
     </row>
@@ -921,7 +921,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Télaprévir + PEGINTERFÉRON ALFA-2A + Ribavirine</t>
+          <t>TELAPREVIR + PEGINTERFERON ALFA-2A + RIBAVIRINE</t>
         </is>
       </c>
     </row>
@@ -933,7 +933,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Interféron alfa-2a</t>
+          <t>INTERFERON ALFA-2A</t>
         </is>
       </c>
     </row>
@@ -945,7 +945,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A + Ribavirine + télaprévir</t>
+          <t>PEGINTERFERON ALFA-2A + RIBAVIRINE + TELAPREVIR</t>
         </is>
       </c>
     </row>
@@ -957,7 +957,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Ribavirine + SOFOSBUVIR</t>
+          <t>RIBAVIRINE + SOFOSBUVIR</t>
         </is>
       </c>
     </row>
@@ -969,7 +969,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>INTROUVABLE (INTERFERON) + Ribavirine</t>
+          <t>INTROUVABLE (INTERFERON) + RIBAVIRINE</t>
         </is>
       </c>
     </row>
@@ -981,7 +981,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Ribavirine + Interféron alfa-2b</t>
+          <t>RIBAVIRINE + INTERFERON ALFA-2B</t>
         </is>
       </c>
     </row>
@@ -993,7 +993,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Simeprevir + SOFOSBUVIR</t>
+          <t>SIMEPREVIR + SOFOSBUVIR</t>
         </is>
       </c>
     </row>
@@ -1005,7 +1005,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>daclatasvir + SOFOSBUVIR</t>
+          <t>DACLATASVIR + SOFOSBUVIR</t>
         </is>
       </c>
     </row>
@@ -1029,7 +1029,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Ribavirine + PEGINTERFÉRON ALFA-2A + Boceprevir</t>
+          <t>RIBAVIRINE + PEGINTERFERON ALFA-2A + BOCEPREVIR</t>
         </is>
       </c>
     </row>
@@ -1041,7 +1041,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Simeprevir + Ribavirine + SOFOSBUVIR</t>
+          <t>SIMEPREVIR + RIBAVIRINE + SOFOSBUVIR</t>
         </is>
       </c>
     </row>
@@ -1053,7 +1053,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Simeprevir + SOFOSBUVIR</t>
+          <t>SIMEPREVIR + SOFOSBUVIR</t>
         </is>
       </c>
     </row>
@@ -1065,7 +1065,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Ribavirine + Interféron alfa-2a</t>
+          <t>RIBAVIRINE + INTERFERON ALFA-2A</t>
         </is>
       </c>
     </row>
@@ -1077,7 +1077,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Ribavirine + télaprévir + PEGINTERFÉRON ALFA-2A</t>
+          <t>RIBAVIRINE + TELAPREVIR + PEGINTERFERON ALFA-2A</t>
         </is>
       </c>
     </row>
@@ -1089,7 +1089,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Grazoprevir + Elbasvir</t>
+          <t>GRAZOPREVIR + ELBASVIR</t>
         </is>
       </c>
     </row>
@@ -1101,7 +1101,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>SOFOSBUVIR; VELPATASVIR; VOXILAPRÉVIR</t>
+          <t>SOFOSBUVIR; VELPATASVIR; VOXILAPREVIR</t>
         </is>
       </c>
     </row>
@@ -1125,7 +1125,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>daclatasvir + Sofosbuvir / Ledipasvir</t>
+          <t>DACLATASVIR + SOFOSBUVIR; VELPATASVIR</t>
         </is>
       </c>
     </row>
@@ -1137,7 +1137,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Ribavirine + PEGINTERFÉRON ALFA-2A + télaprévir</t>
+          <t>RIBAVIRINE + PEGINTERFERON ALFA-2A + TELAPREVIR</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>daclatasvir + Ribavirine + SOFOSBUVIR</t>
+          <t>DACLATASVIR + RIBAVIRINE + SOFOSBUVIR</t>
         </is>
       </c>
     </row>
@@ -1161,7 +1161,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Asunaprévir + daclatasvir + PEGINTERFÉRON ALFA-2A + RIBAVIRINE</t>
+          <t>ASUNAPREVIR + DACLATASVIR + PEGINTERFERON ALFA-2A + RIBAVIRINE</t>
         </is>
       </c>
     </row>
@@ -1173,7 +1173,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>ENTÉCAVIR MONOHYDRATÉ + Ribavirine + SOFOSBUVIR</t>
+          <t>ENTECAVIR + RIBAVIRINE + SOFOSBUVIR</t>
         </is>
       </c>
     </row>
@@ -1185,7 +1185,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>INTROUVABLE (INTERFERON) + Ribavirine</t>
+          <t>INTROUVABLE (INTERFERON) + RIBAVIRINE</t>
         </is>
       </c>
     </row>
@@ -1197,7 +1197,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Ribavirine + INTROUVABLE (INTERFERON)</t>
+          <t>RIBAVIRINE + INTROUVABLE (INTERFERON)</t>
         </is>
       </c>
     </row>
@@ -1209,7 +1209,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>bulévirtide + PEGINTERFÉRON ALFA-2A</t>
+          <t>BULEVIRTIDE + PEGINTERFERON ALFA-2A</t>
         </is>
       </c>
     </row>
@@ -1221,7 +1221,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Ribavirine + Boceprevir + Péginterféron alfa-2b</t>
+          <t>RIBAVIRINE + BOCEPREVIR + PEGINTERFERON ALFA-2B</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>ADÉFOVIR DIPIVOXIL + PEGINTERFÉRON ALFA-2A</t>
+          <t>ADEFOVIR DIPIVOXIL + PEGINTERFERON ALFA-2A</t>
         </is>
       </c>
     </row>
@@ -1245,7 +1245,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
     </row>
@@ -1257,7 +1257,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Ribavirine + Ribavirine</t>
+          <t>RIBAVIRINE + RIBAVIRINE</t>
         </is>
       </c>
     </row>
@@ -1281,7 +1281,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>télaprévir + PEGINTERFÉRON ALFA-2A + Ribavirine</t>
+          <t>TELAPREVIR + PEGINTERFERON ALFA-2A + RIBAVIRINE</t>
         </is>
       </c>
     </row>
@@ -1293,7 +1293,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Ribavirine + Ombitasvir / Paritaprevir / Ritonavir</t>
+          <t>RIBAVIRINE + OMBITASVIR / PARITAPREVIR / RITONAVIR</t>
         </is>
       </c>
     </row>
@@ -1305,7 +1305,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>dasabuvir + Ribavirine + OMBITASVIR/PARITAPREVIR/RITONAVIR</t>
+          <t>DASABUVIR + RIBAVIRINE + OMBITASVIR</t>
         </is>
       </c>
     </row>
@@ -1317,7 +1317,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Asunaprévir + daclatasvir + PEGINTERFÉRON ALFA-2A + Ribavirine</t>
+          <t>ASUNAPREVIR + DACLATASVIR + PEGINTERFERON ALFA-2A + RIBAVIRINE</t>
         </is>
       </c>
     </row>
@@ -1329,7 +1329,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Ombitasvir / Paritaprevir / Ritonavir</t>
+          <t>OMBITASVIR / PARITAPREVIR / RITONAVIR</t>
         </is>
       </c>
     </row>
@@ -1341,7 +1341,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Ribavirine + Sofosbuvir / Ledipasvir</t>
+          <t>RIBAVIRINE + SOFOSBUVIR; VELPATASVIR</t>
         </is>
       </c>
     </row>
@@ -1353,7 +1353,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
     </row>
@@ -1365,7 +1365,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Daclatasvir + Simeprevir + SOFOSBUVIR</t>
+          <t>DACLATASVIR + SIMEPREVIR + SOFOSBUVIR</t>
         </is>
       </c>
     </row>
@@ -1377,7 +1377,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A + RIBAVIRINE</t>
+          <t>PEGINTERFERON ALFA-2A + RIBAVIRINE</t>
         </is>
       </c>
     </row>
@@ -1389,7 +1389,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>LÉDIPASVIR; SOFOSBUVIR + Ribavirine</t>
+          <t>LEDIPASVIR; SOFOSBUVIR + RIBAVIRINE</t>
         </is>
       </c>
     </row>
@@ -1401,7 +1401,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>EMTRICITABINE; FUMARATE DE TÉNOFOVIR DISOPROXIL; RILPIVIRINE (CHLORHYDRATE DE) + Ombitasvir + CONCENTRAT DE VITAMINE A SYNTHÉTIQUE, FORME HUILEUSE + Ribavirine + SOFOSBUVIR</t>
+          <t>EMTRICITABINE;  TENOFOVIR DISOPROXIL; RILPIVIRINE + OMBITASVIR + PARITAPREVIR ; RITONAVIR + RIBAVIRINE + SOFOSBUVIR</t>
         </is>
       </c>
     </row>
@@ -1413,7 +1413,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>LÉDIPASVIR; SOFOSBUVIR</t>
+          <t>LEDIPASVIR; SOFOSBUVIR</t>
         </is>
       </c>
     </row>
@@ -1425,7 +1425,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>INTROUVABLE (INTERFERON) + PEGINTERFÉRON ALFA-2A</t>
+          <t>INTROUVABLE (INTERFERON) + PEGINTERFERON ALFA-2A</t>
         </is>
       </c>
     </row>
@@ -1437,7 +1437,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Ribavirine + CHLORHYDRATE D'AMANTADINE + PEGINTERFÉRON ALFA-2A</t>
+          <t>RIBAVIRINE + AMANTADINE + PEGINTERFERON ALFA-2A</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Dasabuvir + SOFOSBUVIR</t>
+          <t>DASABUVIR + SOFOSBUVIR</t>
         </is>
       </c>
     </row>
@@ -1461,7 +1461,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A + Ribavirine + daclatasvir</t>
+          <t>PEGINTERFERON ALFA-2A + RIBAVIRINE + DACLATASVIR</t>
         </is>
       </c>
     </row>
@@ -1473,7 +1473,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>EMTRICITABINE; FUMARATE DE TÉNOFOVIR DISOPROXIL; RILPIVIRINE (CHLORHYDRATE DE) + Ribavirine + Ombitasvir / Paritaprevir / Ritonavir</t>
+          <t>EMTRICITABINE;  TENOFOVIR DISOPROXIL; RILPIVIRINE + RIBAVIRINE + OMBITASVIR / PARITAPREVIR / RITONAVIR</t>
         </is>
       </c>
     </row>
@@ -1485,7 +1485,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Ribavirine + Interféron alfa-2b</t>
+          <t>RIBAVIRINE + INTERFERON ALFA-2B</t>
         </is>
       </c>
     </row>
@@ -1497,7 +1497,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Asunaprévir + Ribavirine + daclatasvir + PEGINTERFÉRON ALFA-2A</t>
+          <t>ASUNAPREVIR + RIBAVIRINE + DACLATASVIR + PEGINTERFERON ALFA-2A</t>
         </is>
       </c>
     </row>
@@ -1509,7 +1509,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>INTROUVABLE (BMS 79 002) + daclatasvir + Ribavirine</t>
+          <t>DACLATASVIR + DACLATASVIR + RIBAVIRINE</t>
         </is>
       </c>
     </row>
@@ -1521,7 +1521,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>FUMARATE DE TÉNOFOVIR DISOPROXIL</t>
+          <t>TENOFOVIR DISOPROXIL</t>
         </is>
       </c>
     </row>
@@ -1533,7 +1533,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>daclatasvir + INTROUVABLE (INTERFERON) + RIBAVIRINE</t>
+          <t>DACLATASVIR + INTROUVABLE (INTERFERON) + RIBAVIRINE</t>
         </is>
       </c>
     </row>
@@ -1545,7 +1545,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Télaprévir + PEGINTERFÉRON ALFA-2A + RIBAVIRINE</t>
+          <t>TELAPREVIR + PEGINTERFERON ALFA-2A + RIBAVIRINE</t>
         </is>
       </c>
     </row>
@@ -1557,7 +1557,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Ribavirine + Péginterféron alfa-2b + Boceprevir</t>
+          <t>RIBAVIRINE + PEGINTERFERON ALFA-2B + BOCEPREVIR</t>
         </is>
       </c>
     </row>
@@ -1569,7 +1569,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>INTROUVABLE (INTERFERON) + PEGINTERFÉRON ALFA-2A + Ribavirine</t>
+          <t>INTROUVABLE (INTERFERON) + PEGINTERFERON ALFA-2A + RIBAVIRINE</t>
         </is>
       </c>
     </row>
@@ -1593,7 +1593,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>SOFOSBUVIR; VELPATASVIR + Ribavirine</t>
+          <t>SOFOSBUVIR; VELPATASVIR + RIBAVIRINE</t>
         </is>
       </c>
     </row>
@@ -1605,7 +1605,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Interféron alfa-2b + LAMIVUDINE</t>
+          <t>INTERFERON ALFA-2B + LAMIVUDINE</t>
         </is>
       </c>
     </row>
@@ -1617,7 +1617,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Dasabuvir + Ombitasvir + Ribavirine</t>
+          <t>DASABUVIR + OMBITASVIR + RIBAVIRINE</t>
         </is>
       </c>
     </row>
@@ -1629,7 +1629,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>ENTÉCAVIR MONOHYDRATÉ + Péginterféron alfa-2b</t>
+          <t>ENTECAVIR + PEGINTERFERON ALFA-2B</t>
         </is>
       </c>
     </row>
@@ -1641,7 +1641,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>ENTÉCAVIR MONOHYDRATÉ + PEGINTERFÉRON ALFA-2A</t>
+          <t>ENTECAVIR + PEGINTERFERON ALFA-2A</t>
         </is>
       </c>
     </row>
@@ -1653,7 +1653,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Ribavirine + SOFOSBUVIR; VELPATASVIR</t>
+          <t>RIBAVIRINE + SOFOSBUVIR; VELPATASVIR</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>RIBAVIRINE + Sofosbuvir / Ledipasvir</t>
+          <t>RIBAVIRINE + SOFOSBUVIR; VELPATASVIR</t>
         </is>
       </c>
     </row>
@@ -1677,7 +1677,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Ribavirine + Sofosbuvir / Ledipasvir</t>
+          <t>RIBAVIRINE + SOFOSBUVIR; VELPATASVIR</t>
         </is>
       </c>
     </row>
@@ -1689,7 +1689,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>RIBAVIRINE + Péginterféron alfa-2b</t>
+          <t>RIBAVIRINE + PEGINTERFERON ALFA-2B</t>
         </is>
       </c>
     </row>
@@ -1701,7 +1701,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Télaprévir</t>
+          <t>TELAPREVIR</t>
         </is>
       </c>
     </row>
@@ -1713,7 +1713,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>FUMARATE DE TÉNOFOVIR DISOPROXIL</t>
+          <t>TENOFOVIR DISOPROXIL</t>
         </is>
       </c>
     </row>
@@ -1725,7 +1725,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Ribavirine + Bocéprévir + Péginterféron alfa-2b</t>
+          <t>RIBAVIRINE + BOCEPREVIR + PEGINTERFERON ALFA-2B</t>
         </is>
       </c>
     </row>
@@ -1737,7 +1737,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Ribavirine + Télaprévir + Péginterféron alfa-2b</t>
+          <t>RIBAVIRINE + TELAPREVIR + PEGINTERFERON ALFA-2B</t>
         </is>
       </c>
     </row>
@@ -1749,7 +1749,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>ADÉFOVIR DIPIVOXIL + ENTÉCAVIR MONOHYDRATÉ</t>
+          <t>ADEFOVIR DIPIVOXIL + ENTECAVIR</t>
         </is>
       </c>
     </row>
@@ -1761,7 +1761,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Glecaprevir + CONCENTRAT DE VITAMINE A SYNTHÉTIQUE, FORME HUILEUSE</t>
+          <t>GLECAPREVIR + pibrentasvir</t>
         </is>
       </c>
     </row>
@@ -1773,7 +1773,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Télaprévir + PEGINTERFÉRON ALFA-2A + Ribavirine</t>
+          <t>TELAPREVIR + PEGINTERFERON ALFA-2A + RIBAVIRINE</t>
         </is>
       </c>
     </row>
@@ -1785,7 +1785,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>INTROUVABLE (INTERFERON) + Ribavirine + Boceprevir</t>
+          <t>INTROUVABLE (INTERFERON) + RIBAVIRINE + BOCEPREVIR</t>
         </is>
       </c>
     </row>
@@ -1797,7 +1797,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Ribavirine + télaprévir + PEGINTERFÉRON ALFA-2A + Ribavirine</t>
+          <t>RIBAVIRINE + TELAPREVIR + PEGINTERFERON ALFA-2A + RIBAVIRINE</t>
         </is>
       </c>
     </row>
@@ -1809,7 +1809,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Ribavirine + Boceprevir + Interféron alfa-2b</t>
+          <t>RIBAVIRINE + BOCEPREVIR + INTERFERON ALFA-2B</t>
         </is>
       </c>
     </row>
@@ -1821,7 +1821,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Ribavirine + PEGINTERFÉRON ALFA-2A + Rilpivirine</t>
+          <t>RIBAVIRINE + PEGINTERFERON ALFA-2A + RILPIVIRINE</t>
         </is>
       </c>
     </row>
@@ -1833,7 +1833,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>daclatasvir + PEGINTERFÉRON ALFA-2A + Ribavirine</t>
+          <t>DACLATASVIR + PEGINTERFERON ALFA-2A + RIBAVIRINE</t>
         </is>
       </c>
     </row>
@@ -1845,7 +1845,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Ribavirine + PEGINTERFÉRON ALFA-2A + daclatasvir</t>
+          <t>RIBAVIRINE + PEGINTERFERON ALFA-2A + DACLATASVIR</t>
         </is>
       </c>
     </row>
@@ -1857,7 +1857,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>ADÉFOVIR DIPIVOXIL + LAMIVUDINE</t>
+          <t>ADEFOVIR DIPIVOXIL + LAMIVUDINE</t>
         </is>
       </c>
     </row>
@@ -1869,7 +1869,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A + Ribavirine</t>
+          <t>PEGINTERFERON ALFA-2A + RIBAVIRINE</t>
         </is>
       </c>
     </row>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Lopinavir / Ritonavir + bulévirtide</t>
+          <t>LOPINAVIR / RITONAVIR + BULEVIRTIDE</t>
         </is>
       </c>
     </row>
@@ -1893,7 +1893,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Ribavirine + OMBITASVIR/PARITAPREVIR/RITONAVIR</t>
+          <t>RIBAVIRINE + OMBITASVIR</t>
         </is>
       </c>
     </row>
@@ -1905,7 +1905,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>ENTÉCAVIR MONOHYDRATÉ + Ribavirine + PEGINTERFÉRON ALFA-2A</t>
+          <t>ENTECAVIR + RIBAVIRINE + PEGINTERFERON ALFA-2A</t>
         </is>
       </c>
     </row>
@@ -1917,7 +1917,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Asunaprévir + ENTÉCAVIR MONOHYDRATÉ + Ribavirine + daclatasvir + PEGINTERFÉRON ALFA-2A</t>
+          <t>ASUNAPREVIR + ENTECAVIR + RIBAVIRINE + DACLATASVIR + PEGINTERFERON ALFA-2A</t>
         </is>
       </c>
     </row>
@@ -1929,7 +1929,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
     </row>
@@ -1941,7 +1941,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Ribavirine + SIMEPREVIR + SOFOSBUVIR</t>
+          <t>RIBAVIRINE + SIMEPREVIR + SOFOSBUVIR</t>
         </is>
       </c>
     </row>
@@ -1953,7 +1953,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>CHLORHYDRATE D'AMANTADINE</t>
+          <t>AMANTADINE</t>
         </is>
       </c>
     </row>
@@ -1965,7 +1965,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>bulévirtide</t>
+          <t>BULEVIRTIDE</t>
         </is>
       </c>
     </row>
@@ -1977,7 +1977,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>télaprévir + INTROUVABLE (INTERFERON) + Ribavirine</t>
+          <t>TELAPREVIR + INTROUVABLE (INTERFERON) + RIBAVIRINE</t>
         </is>
       </c>
     </row>
@@ -1989,7 +1989,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>GLÉCAPRÉVIR; PIBRENTASVIR + Ribavirine + SOFOSBUVIR</t>
+          <t>GLECAPREVIR; PIBRENTASVIR + RIBAVIRINE + SOFOSBUVIR</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Télaprévir + INTROUVABLE (INTERFERON) + Ribavirine</t>
+          <t>TELAPREVIR + INTROUVABLE (INTERFERON) + RIBAVIRINE</t>
         </is>
       </c>
     </row>
@@ -2013,19 +2013,19 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A + Ribavirine + Bocéprévir</t>
+          <t>PEGINTERFERON ALFA-2A + RIBAVIRINE + BOCEPREVIR</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Ribavirine (Copegus / Rébétol) + Sovaldi + Zepatier</t>
+          <t>Ribavirine (Copegus / Rébétol) + Sovaldi  + Zepatier</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Ribavirine + SOFOSBUVIR + ELBASVIR; GRAZOPRÉVIR MONOHYDRATÉ</t>
+          <t>RIBAVIRINE + SOFOSBUVIR + ELBASVIR; GRAZOPREVIR</t>
         </is>
       </c>
     </row>
@@ -2037,7 +2037,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Ribavirine + PEGINTERFÉRON ALFA-2A + Bocéprévir</t>
+          <t>RIBAVIRINE + PEGINTERFERON ALFA-2A + BOCEPREVIR</t>
         </is>
       </c>
     </row>
@@ -2049,7 +2049,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Bocéprévir</t>
+          <t>BOCEPREVIR</t>
         </is>
       </c>
     </row>
@@ -2061,7 +2061,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>dasabuvir + OMBITASVIR/PARITAPREVIR/RITONAVIR</t>
+          <t>DASABUVIR + OMBITASVIR</t>
         </is>
       </c>
     </row>
@@ -2073,7 +2073,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>EMTRICITABINE; TÉNOFOVIR DISOPROXIL (FUMARATE DE) + DOLUTÉGRAVIR SODIQUE</t>
+          <t>EMTRICITABINE; TENOFOVIR DISOPROXIL + DOLUTEGRAVIR</t>
         </is>
       </c>
     </row>
@@ -2085,7 +2085,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>CHLORHYDRATE D'AMANTADINE + Ribavirine + Péginterféron alfa-2b</t>
+          <t>AMANTADINE + RIBAVIRINE + PEGINTERFERON ALFA-2B</t>
         </is>
       </c>
     </row>
@@ -2109,7 +2109,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Ribavirine + Sofosbuvir / Ledipasvir</t>
+          <t>RIBAVIRINE + SOFOSBUVIR; VELPATASVIR</t>
         </is>
       </c>
     </row>
@@ -2121,7 +2121,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>ENTÉCAVIR MONOHYDRATÉ + PEGINTERFÉRON ALFA-2A + LAMIVUDINE</t>
+          <t>ENTECAVIR + PEGINTERFERON ALFA-2A + LAMIVUDINE</t>
         </is>
       </c>
     </row>
@@ -2133,7 +2133,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>ENTÉCAVIR MONOHYDRATÉ + LAMIVUDINE</t>
+          <t>ENTECAVIR + LAMIVUDINE</t>
         </is>
       </c>
     </row>
@@ -2145,7 +2145,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Télaprévir + PEGINTERFÉRON ALFA-2A + Ribavirine</t>
+          <t>TELAPREVIR + PEGINTERFERON ALFA-2A + RIBAVIRINE</t>
         </is>
       </c>
     </row>
@@ -2157,7 +2157,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A + Ribavirine + Sofosbuvir / Ledipasvir</t>
+          <t>PEGINTERFERON ALFA-2A + RIBAVIRINE + SOFOSBUVIR; VELPATASVIR</t>
         </is>
       </c>
     </row>
@@ -2169,7 +2169,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A + Ribavirine</t>
+          <t>PEGINTERFERON ALFA-2A + RIBAVIRINE</t>
         </is>
       </c>
     </row>
@@ -2181,19 +2181,19 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Ribavirine + Interféron alfa-2b</t>
+          <t>RIBAVIRINE + INTERFERON ALFA-2B</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Sovaldi + Zepatier</t>
+          <t>Sovaldi  + Zepatier</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>SOFOSBUVIR + ELBASVIR; GRAZOPRÉVIR MONOHYDRATÉ</t>
+          <t>SOFOSBUVIR + ELBASVIR; GRAZOPREVIR</t>
         </is>
       </c>
     </row>
@@ -2205,7 +2205,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Ribavirine + Interféron alfa-2a</t>
+          <t>RIBAVIRINE + INTERFERON ALFA-2A</t>
         </is>
       </c>
     </row>
@@ -2217,7 +2217,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>INTROUVABLE (INTERFERON) + Ribavirine + Bocéprévir</t>
+          <t>INTROUVABLE (INTERFERON) + RIBAVIRINE + BOCEPREVIR</t>
         </is>
       </c>
     </row>
@@ -2229,7 +2229,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>bulévirtide + PEGINTERFÉRON ALFA-2A</t>
+          <t>BULEVIRTIDE + PEGINTERFERON ALFA-2A</t>
         </is>
       </c>
     </row>
@@ -2241,7 +2241,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>LÉDIPASVIR; SOFOSBUVIR + INTROUVABLE (INTERFERON) + Ribavirine</t>
+          <t>LEDIPASVIR; SOFOSBUVIR + INTROUVABLE (INTERFERON) + RIBAVIRINE</t>
         </is>
       </c>
     </row>
@@ -2265,7 +2265,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>ADÉFOVIR DIPIVOXIL + Péginterféron alfa-2b + LAMIVUDINE</t>
+          <t>ADEFOVIR DIPIVOXIL + PEGINTERFERON ALFA-2B + LAMIVUDINE</t>
         </is>
       </c>
     </row>
@@ -2277,7 +2277,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Deleobuvir + INTROUVABLE (BMS 79 002) + PEGINTERFÉRON ALFA-2A + Ribavirine</t>
+          <t>DELEOBUVIR + DACLATASVIR + PEGINTERFERON ALFA-2A + RIBAVIRINE</t>
         </is>
       </c>
     </row>
@@ -2289,7 +2289,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>LÉDIPASVIR; SOFOSBUVIR + PEGINTERFÉRON ALFA-2A + Ribavirine</t>
+          <t>LEDIPASVIR; SOFOSBUVIR + PEGINTERFERON ALFA-2A + RIBAVIRINE</t>
         </is>
       </c>
     </row>
@@ -2301,7 +2301,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>ENTÉCAVIR MONOHYDRATÉ + ADÉFOVIR DIPIVOXIL</t>
+          <t>ENTECAVIR + ADEFOVIR DIPIVOXIL</t>
         </is>
       </c>
     </row>
@@ -2313,7 +2313,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>INTROUVABLE (INTERFERON) + Ribavirine + Bocéprévir</t>
+          <t>INTROUVABLE (INTERFERON) + RIBAVIRINE + BOCEPREVIR</t>
         </is>
       </c>
     </row>
@@ -2325,7 +2325,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A + Ribavirine + Boceprevir</t>
+          <t>PEGINTERFERON ALFA-2A + RIBAVIRINE + BOCEPREVIR</t>
         </is>
       </c>
     </row>
@@ -2337,7 +2337,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Ribavirine + Péginterféron alfa-2b + Boceprevir</t>
+          <t>RIBAVIRINE + PEGINTERFERON ALFA-2B + BOCEPREVIR</t>
         </is>
       </c>
     </row>
@@ -2349,7 +2349,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Ribavirine + SOFOSBUVIR; VELPATASVIR; VOXILAPRÉVIR</t>
+          <t>RIBAVIRINE + SOFOSBUVIR; VELPATASVIR; VOXILAPREVIR</t>
         </is>
       </c>
     </row>
@@ -2361,7 +2361,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Ribavirine + PEGINTERFÉRON ALFA-2A + Deleobuvir</t>
+          <t>RIBAVIRINE + PEGINTERFERON ALFA-2A + DELEOBUVIR</t>
         </is>
       </c>
     </row>
@@ -2373,7 +2373,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>ENTÉCAVIR MONOHYDRATÉ + GLÉCAPRÉVIR; PIBRENTASVIR</t>
+          <t>ENTECAVIR + GLECAPREVIR; PIBRENTASVIR</t>
         </is>
       </c>
     </row>
@@ -2385,7 +2385,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Ribavirine + Interféron alfa-2b</t>
+          <t>RIBAVIRINE + INTERFERON ALFA-2B</t>
         </is>
       </c>
     </row>
@@ -2397,19 +2397,19 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Télaprévir + INTROUVABLE (INTERFERON) + Ribavirine</t>
+          <t>TELAPREVIR + INTROUVABLE (INTERFERON) + RIBAVIRINE</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Ribavirine (Copegus / Rébétol) + Sovaldi + Viraferon Peg</t>
+          <t>Ribavirine (Copegus / Rébétol) + Sovaldi  + Viraferon Peg</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Ribavirine + SOFOSBUVIR + Péginterféron alfa-2b</t>
+          <t>RIBAVIRINE + SOFOSBUVIR + PEGINTERFERON ALFA-2B</t>
         </is>
       </c>
     </row>
@@ -2421,7 +2421,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Asunaprévir + daclatasvir + INTROUVABLE (INTERFERON) + Ribavirine</t>
+          <t>ASUNAPREVIR + DACLATASVIR + INTROUVABLE (INTERFERON) + RIBAVIRINE</t>
         </is>
       </c>
     </row>
@@ -2433,7 +2433,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Ribavirine + Interféron alfa-2b</t>
+          <t>RIBAVIRINE + INTERFERON ALFA-2B</t>
         </is>
       </c>
     </row>
@@ -2445,7 +2445,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Ribavirine + Interféron alfa-2a + Péginterféron alfa-2b</t>
+          <t>RIBAVIRINE + INTERFERON ALFA-2A + PEGINTERFERON ALFA-2B</t>
         </is>
       </c>
     </row>
@@ -2457,7 +2457,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>INTROUVABLE (INTERFERON) + Ribavirine + SOFOSBUVIR</t>
+          <t>INTROUVABLE (INTERFERON) + RIBAVIRINE + SOFOSBUVIR</t>
         </is>
       </c>
     </row>
@@ -2469,7 +2469,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Télaprévir + PEGINTERFÉRON ALFA-2A</t>
+          <t>TELAPREVIR + PEGINTERFERON ALFA-2A</t>
         </is>
       </c>
     </row>
@@ -2481,7 +2481,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Interféron alfa-2b + Ribavirine</t>
+          <t>INTERFERON ALFA-2B + RIBAVIRINE</t>
         </is>
       </c>
     </row>
@@ -2493,7 +2493,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>télaprévir</t>
+          <t>TELAPREVIR</t>
         </is>
       </c>
     </row>
@@ -2505,7 +2505,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Interféron alfa-2b + PEGINTERFÉRON ALFA-2A + Ribavirine</t>
+          <t>INTERFERON ALFA-2B + PEGINTERFERON ALFA-2A + RIBAVIRINE</t>
         </is>
       </c>
     </row>
@@ -2517,7 +2517,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>RIBAVIRINE + Interféron alfa-2a</t>
+          <t>RIBAVIRINE + INTERFERON ALFA-2A</t>
         </is>
       </c>
     </row>
@@ -2529,7 +2529,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Daclatasvir + Ribavirine + SOFOSBUVIR; VELPATASVIR</t>
+          <t>DACLATASVIR + RIBAVIRINE + SOFOSBUVIR; VELPATASVIR</t>
         </is>
       </c>
     </row>
@@ -2541,7 +2541,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>EMTRICITABINE; TÉNOFOVIR DISOPROXIL (FUMARATE DE) + Ribavirine + SOFOSBUVIR</t>
+          <t>EMTRICITABINE; TENOFOVIR DISOPROXIL + RIBAVIRINE + SOFOSBUVIR</t>
         </is>
       </c>
     </row>
@@ -2553,7 +2553,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Ribavirine + Boceprevir + Péginterféron alfa-2b</t>
+          <t>RIBAVIRINE + BOCEPREVIR + PEGINTERFERON ALFA-2B</t>
         </is>
       </c>
     </row>
@@ -2565,7 +2565,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>ZIDOVUDINE + Didanosine</t>
+          <t>ZIDOVUDINE + DIDANOSINE</t>
         </is>
       </c>
     </row>
@@ -2577,7 +2577,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Télaprévir + PEGINTERFÉRON ALFA-2A + Ribavirine</t>
+          <t>TELAPREVIR + PEGINTERFERON ALFA-2A + RIBAVIRINE</t>
         </is>
       </c>
     </row>
@@ -2589,7 +2589,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A + Ribavirine</t>
+          <t>PEGINTERFERON ALFA-2A + RIBAVIRINE</t>
         </is>
       </c>
     </row>
@@ -2601,7 +2601,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Ombitasvir + CONCENTRAT DE VITAMINE A SYNTHÉTIQUE, FORME HUILEUSE + Ribavirine</t>
+          <t>OMBITASVIR + PARITAPREVIR ; RITONAVIR + RIBAVIRINE</t>
         </is>
       </c>
     </row>
@@ -2613,7 +2613,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>SOFOSBUVIR; VELPATASVIR + PEGINTERFÉRON ALFA-2A + Ribavirine</t>
+          <t>SOFOSBUVIR; VELPATASVIR + PEGINTERFERON ALFA-2A + RIBAVIRINE</t>
         </is>
       </c>
     </row>
@@ -2625,7 +2625,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Ribavirine + Péginterféron alfa (non précisé)</t>
+          <t>RIBAVIRINE + PEGINTERFERON ALFA</t>
         </is>
       </c>
     </row>
@@ -2637,7 +2637,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A + Ribavirine + LAMIVUDINE</t>
+          <t>PEGINTERFERON ALFA-2A + RIBAVIRINE + LAMIVUDINE</t>
         </is>
       </c>
     </row>
@@ -2649,7 +2649,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Daclatasvir + PEGINTERFÉRON ALFA-2A + Ribavirine</t>
+          <t>DACLATASVIR + PEGINTERFERON ALFA-2A + RIBAVIRINE</t>
         </is>
       </c>
     </row>
@@ -2661,7 +2661,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A + RIBAVIRINE + Bocéprévir</t>
+          <t>PEGINTERFERON ALFA-2A + RIBAVIRINE + BOCEPREVIR</t>
         </is>
       </c>
     </row>
@@ -2673,7 +2673,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Asunaprévir + Daclatasvir</t>
+          <t>ASUNAPREVIR + DACLATASVIR</t>
         </is>
       </c>
     </row>
@@ -2685,7 +2685,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Télaprévir + Ribavirine + Péginterféron alfa-2b</t>
+          <t>TELAPREVIR + RIBAVIRINE + PEGINTERFERON ALFA-2B</t>
         </is>
       </c>
     </row>
@@ -2697,7 +2697,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>CHLORHYDRATE D'AMANTADINE + PEGINTERFÉRON ALFA-2A + Ribavirine</t>
+          <t>AMANTADINE + PEGINTERFERON ALFA-2A + RIBAVIRINE</t>
         </is>
       </c>
     </row>
@@ -2709,7 +2709,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>ELBASVIR; GRAZOPRÉVIR MONOHYDRATÉ</t>
+          <t>ELBASVIR; GRAZOPREVIR</t>
         </is>
       </c>
     </row>
@@ -2721,7 +2721,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>CHLORHYDRATE D'AMANTADINE + PEGINTERFÉRON ALFA-2A + Ribavirine</t>
+          <t>AMANTADINE + PEGINTERFERON ALFA-2A + RIBAVIRINE</t>
         </is>
       </c>
     </row>
@@ -2733,19 +2733,19 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A + Ribavirine + Bocéprévir</t>
+          <t>PEGINTERFERON ALFA-2A + RIBAVIRINE + BOCEPREVIR</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Daklinza + Sovaldi + Viekirax</t>
+          <t>Daklinza + Sovaldi  + Viekirax</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Daclatasvir + SOFOSBUVIR + Ombitasvir / Paritaprevir / Ritonavir</t>
+          <t>DACLATASVIR + SOFOSBUVIR + OMBITASVIR / PARITAPREVIR / RITONAVIR</t>
         </is>
       </c>
     </row>
@@ -2757,7 +2757,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>INTROUVABLE (BMS 79 002) + PEGINTERFÉRON ALFA-2A + Ribavirine</t>
+          <t>DACLATASVIR + PEGINTERFERON ALFA-2A + RIBAVIRINE</t>
         </is>
       </c>
     </row>
@@ -2769,7 +2769,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Ribavirine + SOFOSBUVIR</t>
+          <t>RIBAVIRINE + SOFOSBUVIR</t>
         </is>
       </c>
     </row>
@@ -2781,7 +2781,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Télaprévir + INTROUVABLE (INTERFERON) + Ribavirine</t>
+          <t>TELAPREVIR + INTROUVABLE (INTERFERON) + RIBAVIRINE</t>
         </is>
       </c>
     </row>
@@ -2793,7 +2793,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Asunaprévir + SOFOSBUVIR</t>
+          <t>ASUNAPREVIR + SOFOSBUVIR</t>
         </is>
       </c>
     </row>
@@ -2805,7 +2805,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>LÉDIPASVIR; SOFOSBUVIR + Ribavirine</t>
+          <t>LEDIPASVIR; SOFOSBUVIR + RIBAVIRINE</t>
         </is>
       </c>
     </row>
@@ -2817,7 +2817,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Télaprévir + INTROUVABLE (INTERFERON) + PEGINTERFÉRON ALFA-2A + Ribavirine</t>
+          <t>TELAPREVIR + INTROUVABLE (INTERFERON) + PEGINTERFERON ALFA-2A + RIBAVIRINE</t>
         </is>
       </c>
     </row>
@@ -2829,7 +2829,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>ENTÉCAVIR MONOHYDRATÉ + SOFOSBUVIR; VELPATASVIR</t>
+          <t>ENTECAVIR + SOFOSBUVIR; VELPATASVIR</t>
         </is>
       </c>
     </row>
@@ -2841,7 +2841,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Daclatasvir + LÉDIPASVIR; SOFOSBUVIR</t>
+          <t>DACLATASVIR + LEDIPASVIR; SOFOSBUVIR</t>
         </is>
       </c>
     </row>
@@ -2853,7 +2853,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>GLÉCAPRÉVIR; PIBRENTASVIR + SOFOSBUVIR</t>
+          <t>GLECAPREVIR; PIBRENTASVIR + SOFOSBUVIR</t>
         </is>
       </c>
     </row>
@@ -2865,7 +2865,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>ENTÉCAVIR MONOHYDRATÉ + LÉDIPASVIR; SOFOSBUVIR + Ribavirine</t>
+          <t>ENTECAVIR + LEDIPASVIR; SOFOSBUVIR + RIBAVIRINE</t>
         </is>
       </c>
     </row>
@@ -2877,7 +2877,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A + Ribavirine + Télaprévir</t>
+          <t>PEGINTERFERON ALFA-2A + RIBAVIRINE + TELAPREVIR</t>
         </is>
       </c>
     </row>
@@ -2889,7 +2889,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Grazoprevir + Elbasvir + Ribavirine</t>
+          <t>GRAZOPREVIR + ELBASVIR + RIBAVIRINE</t>
         </is>
       </c>
     </row>
@@ -2901,7 +2901,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>télaprévir + Ribavirine + Interféron alfa-2a</t>
+          <t>TELAPREVIR + RIBAVIRINE + INTERFERON ALFA-2A</t>
         </is>
       </c>
     </row>
@@ -2913,7 +2913,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>CHLORHYDRATE D'AMANTADINE + Ribavirine + Interféron alfa-2b</t>
+          <t>AMANTADINE + RIBAVIRINE + INTERFERON ALFA-2B</t>
         </is>
       </c>
     </row>
@@ -2925,7 +2925,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>INTROUVABLE (INTERFERON) + PEGINTERFÉRON ALFA-2A + Ribavirine</t>
+          <t>INTROUVABLE (INTERFERON) + PEGINTERFERON ALFA-2A + RIBAVIRINE</t>
         </is>
       </c>
     </row>
@@ -2937,7 +2937,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>RIBAVIRINE + Interféron alfa-2b + Ribavirine</t>
+          <t>RIBAVIRINE + INTERFERON ALFA-2B + RIBAVIRINE</t>
         </is>
       </c>
     </row>
@@ -2949,7 +2949,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Ribavirine + télaprévir</t>
+          <t>RIBAVIRINE + TELAPREVIR</t>
         </is>
       </c>
     </row>
@@ -2961,7 +2961,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Péginterféron alfa-2b + LAMIVUDINE</t>
+          <t>PEGINTERFERON ALFA-2B + LAMIVUDINE</t>
         </is>
       </c>
     </row>
@@ -2973,7 +2973,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>bulévirtide</t>
+          <t>BULEVIRTIDE</t>
         </is>
       </c>
     </row>
@@ -2985,7 +2985,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Interféron alfa-2b + Ribavirine</t>
+          <t>INTERFERON ALFA-2B + RIBAVIRINE</t>
         </is>
       </c>
     </row>
@@ -2997,7 +2997,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Ribavirine + INTROUVABLE (INTERFERON) + Interféron alfa-2a + Boceprevir</t>
+          <t>RIBAVIRINE + INTROUVABLE (INTERFERON) + INTERFERON ALFA-2A + BOCEPREVIR</t>
         </is>
       </c>
     </row>
@@ -3009,7 +3009,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Télaprévir + INTROUVABLE (INTERFERON) + RIBAVIRINE</t>
+          <t>TELAPREVIR + INTROUVABLE (INTERFERON) + RIBAVIRINE</t>
         </is>
       </c>
     </row>
@@ -3021,7 +3021,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Télaprévir + Ribavirine + Péginterféron alfa-2b</t>
+          <t>TELAPREVIR + RIBAVIRINE + PEGINTERFERON ALFA-2B</t>
         </is>
       </c>
     </row>
@@ -3033,7 +3033,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>ELBASVIR; GRAZOPRÉVIR MONOHYDRATÉ</t>
+          <t>ELBASVIR; GRAZOPREVIR</t>
         </is>
       </c>
     </row>
@@ -3045,7 +3045,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Bulevirtide</t>
+          <t>BULEVIRTIDE</t>
         </is>
       </c>
     </row>
@@ -3057,7 +3057,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Daclatasvir + Simeprevir + Ribavirine + SOFOSBUVIR</t>
+          <t>DACLATASVIR + SIMEPREVIR + RIBAVIRINE + SOFOSBUVIR</t>
         </is>
       </c>
     </row>
@@ -3069,7 +3069,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>INTROUVABLE (INTERFERON) + Ribavirine + Péginterféron alfa-2b</t>
+          <t>INTROUVABLE (INTERFERON) + RIBAVIRINE + PEGINTERFERON ALFA-2B</t>
         </is>
       </c>
     </row>
@@ -3081,7 +3081,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>daclatasvir + INTROUVABLE (INTERFERON) + Ribavirine</t>
+          <t>DACLATASVIR + INTROUVABLE (INTERFERON) + RIBAVIRINE</t>
         </is>
       </c>
     </row>
@@ -3093,7 +3093,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A + LAMIVUDINE</t>
+          <t>PEGINTERFERON ALFA-2A + LAMIVUDINE</t>
         </is>
       </c>
     </row>
@@ -3105,7 +3105,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Ribavirine + Interféron alfa-2a</t>
+          <t>RIBAVIRINE + INTERFERON ALFA-2A</t>
         </is>
       </c>
     </row>
@@ -3117,7 +3117,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A + Ribavirine + Bocéprévir</t>
+          <t>PEGINTERFERON ALFA-2A + RIBAVIRINE + BOCEPREVIR</t>
         </is>
       </c>
     </row>
@@ -3129,7 +3129,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>INTROUVABLE (INTERFERON) + CHLORHYDRATE D'AMANTADINE + Ribavirine</t>
+          <t>INTROUVABLE (INTERFERON) + AMANTADINE + RIBAVIRINE</t>
         </is>
       </c>
     </row>
@@ -3141,7 +3141,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Interféron alfa-2a + Péginterféron alfa-2b</t>
+          <t>INTERFERON ALFA-2A + PEGINTERFERON ALFA-2B</t>
         </is>
       </c>
     </row>
@@ -3153,7 +3153,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>INTROUVABLE (INTERFERON) + Ribavirine</t>
+          <t>INTROUVABLE (INTERFERON) + RIBAVIRINE</t>
         </is>
       </c>
     </row>
@@ -3165,7 +3165,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Péginterféron alfa (non précisé) + Ribavirine</t>
+          <t>PEGINTERFERON ALFA + RIBAVIRINE</t>
         </is>
       </c>
     </row>
@@ -3177,7 +3177,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Grazoprevir</t>
+          <t>GRAZOPREVIR</t>
         </is>
       </c>
     </row>
@@ -3189,7 +3189,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>bulévirtide + INTROUVABLE (INTERFERON)</t>
+          <t>BULEVIRTIDE + INTROUVABLE (INTERFERON)</t>
         </is>
       </c>
     </row>
@@ -3201,7 +3201,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A + Ribavirine</t>
+          <t>PEGINTERFERON ALFA-2A + RIBAVIRINE</t>
         </is>
       </c>
     </row>
@@ -3213,7 +3213,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Péginterféron alfa (non précisé)</t>
+          <t>PEGINTERFERON ALFA</t>
         </is>
       </c>
     </row>
@@ -3225,7 +3225,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Interféron alfa-2b + LAMIVUDINE</t>
+          <t>INTERFERON ALFA-2B + LAMIVUDINE</t>
         </is>
       </c>
     </row>
@@ -3237,7 +3237,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>CONCENTRAT DE VITAMINE A SYNTHÉTIQUE, FORME HUILEUSE + éthambutol + CHLORHYDRATE DE MOXIFLOXACINE + ADRENALINUM POUR PRÉPARATIONS HOMÉOPATHIQUES; ALOE POUR PRÉPARATIONS HOMÉOPATHIQUES; CALCAREA HYPOPHOSPHOROSA POUR PRÉPARATIONS HOMÉOPATHIQUES; CHAMOMILLA POUR PRÉPARATIONS HOMÉOPATHIQUES; CHINA RUBRA POUR PRÉPARATIONS HOMÉOPATHIQUES; CIMICIFUGA POUR PRÉPARATIONS HOMÉOPATHIQUES; CUPRUM SULFURICUM POUR PRÉPARATIONS HOMÉOPATHIQUES; GOSSYPIUM POUR PRÉPARATIONS HOMÉOPATHIQUES; HYDRASTIS CANADENSIS POUR PRÉPARATIONS HOMÉOPATHIQUES; MAGNESIA MURIATICA POUR PRÉPARATIONS HOMÉOPATHIQUES; SECALE CORNUTUM POUR PRÉPARATIONS HOMÉOPATHIQUES; SENECIO AUREUS POUR PRÉPARATIONS HOMÉOPATHIQUES; VISCUM ALBUM POUR PRÉPARATIONS HOMÉOPATHIQUES</t>
+          <t>linézolide + ETHAMBUTOL + MOXIFLOXACINE + LINEZOLIDE</t>
         </is>
       </c>
     </row>
@@ -3249,7 +3249,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>CHLORHYDRATE DE MOXIFLOXACINE + diarylquinolines</t>
+          <t>MOXIFLOXACINE + DIARYLQUINOLINES</t>
         </is>
       </c>
     </row>
@@ -3261,7 +3261,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Asunaprévir + Daclatasvir + PEGINTERFÉRON ALFA-2A + Ribavirine</t>
+          <t>ASUNAPREVIR + DACLATASVIR + PEGINTERFERON ALFA-2A + RIBAVIRINE</t>
         </is>
       </c>
     </row>
@@ -3273,7 +3273,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>ENTÉCAVIR MONOHYDRATÉ + Ribavirine + Péginterféron alfa-2b</t>
+          <t>ENTECAVIR + RIBAVIRINE + PEGINTERFERON ALFA-2B</t>
         </is>
       </c>
     </row>
@@ -3285,7 +3285,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Ribavirine + Bocéprévir</t>
+          <t>RIBAVIRINE + BOCEPREVIR</t>
         </is>
       </c>
     </row>
@@ -3297,7 +3297,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Daclatasvir + Sofosbuvir / Ledipasvir</t>
+          <t>DACLATASVIR + SOFOSBUVIR ;LEDIPASVIR</t>
         </is>
       </c>
     </row>
@@ -3309,7 +3309,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Asunaprévir + INTROUVABLE (BMS 79 002) + PEGINTERFÉRON ALFA-2A + Ribavirine</t>
+          <t>ASUNAPREVIR + DACLATASVIR + PEGINTERFERON ALFA-2A + RIBAVIRINE</t>
         </is>
       </c>
     </row>
@@ -3321,7 +3321,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>INTROUVABLE (INTERFERON) + PEGINTERFÉRON ALFA-2A + RIBAVIRINE</t>
+          <t>INTROUVABLE (INTERFERON) + PEGINTERFERON ALFA-2A + RIBAVIRINE</t>
         </is>
       </c>
     </row>
@@ -3333,7 +3333,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A + Ribavirine + Ribavirine</t>
+          <t>PEGINTERFERON ALFA-2A + RIBAVIRINE + RIBAVIRINE</t>
         </is>
       </c>
     </row>
@@ -3345,7 +3345,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Ribavirine + télaprévir + Péginterféron alfa-2b</t>
+          <t>RIBAVIRINE + TELAPREVIR + PEGINTERFERON ALFA-2B</t>
         </is>
       </c>
     </row>
@@ -3357,7 +3357,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Grazoprevir + Elbasvir + Ribavirine + SOFOSBUVIR</t>
+          <t>GRAZOPREVIR + ELBASVIR + RIBAVIRINE + SOFOSBUVIR</t>
         </is>
       </c>
     </row>
@@ -3369,7 +3369,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Ribavirine + Bocéprévir + Péginterféron alfa-2b</t>
+          <t>RIBAVIRINE + BOCEPREVIR + PEGINTERFERON ALFA-2B</t>
         </is>
       </c>
     </row>
@@ -3381,7 +3381,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Daclatasvir + Ribavirine + SIMEPREVIR + SOFOSBUVIR</t>
+          <t>DACLATASVIR + RIBAVIRINE + SIMEPREVIR + SOFOSBUVIR</t>
         </is>
       </c>
     </row>
@@ -3405,7 +3405,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Daclatasvir + Interféron alfa-2b + SOFOSBUVIR</t>
+          <t>DACLATASVIR + INTERFERON ALFA-2B + SOFOSBUVIR</t>
         </is>
       </c>
     </row>
@@ -3417,7 +3417,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>ENTÉCAVIR MONOHYDRATÉ + LÉDIPASVIR; SOFOSBUVIR</t>
+          <t>ENTECAVIR + LEDIPASVIR; SOFOSBUVIR</t>
         </is>
       </c>
     </row>
@@ -3429,7 +3429,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>COBICISTAT; ELVITÉGRAVIR; EMTRICITABINE; FUMARATE DE TÉNOFOVIR DISOPROXIL</t>
+          <t>COBICISTAT; ELVITEGRAVIR; EMTRICITABINE; TENOFOVIR DISOPROXIL</t>
         </is>
       </c>
     </row>
@@ -3441,7 +3441,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>INTROUVABLE (INTERFERON) + Ribavirine</t>
+          <t>INTROUVABLE (INTERFERON) + RIBAVIRINE</t>
         </is>
       </c>
     </row>
@@ -3453,7 +3453,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>EMTRICITABINE; TÉNOFOVIR DISOPROXIL (FUMARATE DE) + ELBASVIR; GRAZOPRÉVIR MONOHYDRATÉ</t>
+          <t>EMTRICITABINE; TENOFOVIR DISOPROXIL + ELBASVIR; GRAZOPREVIR</t>
         </is>
       </c>
     </row>
@@ -3465,7 +3465,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Ribavirine + Bocéprévir + Péginterféron alfa-2b</t>
+          <t>RIBAVIRINE + BOCEPREVIR + PEGINTERFERON ALFA-2B</t>
         </is>
       </c>
     </row>
@@ -3477,7 +3477,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Daclatasvir + PEGINTERFÉRON ALFA-2A + Ribavirine</t>
+          <t>DACLATASVIR + PEGINTERFERON ALFA-2A + RIBAVIRINE</t>
         </is>
       </c>
     </row>
@@ -3489,7 +3489,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Ribavirine + PEGINTERFÉRON ALFA-2A + INTROUVABLE (BMS 79 002)</t>
+          <t>RIBAVIRINE + PEGINTERFERON ALFA-2A + DACLATASVIR</t>
         </is>
       </c>
     </row>
@@ -3501,7 +3501,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Télaprévir + PEGINTERFÉRON ALFA-2A + Ribavirine + SOFOSBUVIR</t>
+          <t>TELAPREVIR + PEGINTERFERON ALFA-2A + RIBAVIRINE + SOFOSBUVIR</t>
         </is>
       </c>
     </row>
@@ -3513,7 +3513,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>EMTRICITABINE; TÉNOFOVIR DISOPROXIL (FUMARATE DE)</t>
+          <t>EMTRICITABINE; TENOFOVIR DISOPROXIL</t>
         </is>
       </c>
     </row>
@@ -3525,7 +3525,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>EMTRICITABINE; TÉNOFOVIR DISOPROXIL (FUMARATE DE)</t>
+          <t>EMTRICITABINE; TENOFOVIR DISOPROXIL</t>
         </is>
       </c>
     </row>
@@ -3537,7 +3537,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A + Ribavirine + Bocéprévir</t>
+          <t>PEGINTERFERON ALFA-2A + RIBAVIRINE + BOCEPREVIR</t>
         </is>
       </c>
     </row>
@@ -3549,7 +3549,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>RIBAVIRINE + Interféron alfa-2b</t>
+          <t>RIBAVIRINE + INTERFERON ALFA-2B</t>
         </is>
       </c>
     </row>
@@ -3561,7 +3561,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A + Ribavirine + Ribavirine</t>
+          <t>PEGINTERFERON ALFA-2A + RIBAVIRINE + RIBAVIRINE</t>
         </is>
       </c>
     </row>
@@ -3573,7 +3573,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Daclatasvir + INTROUVABLE (INTERFERON) + Ribavirine</t>
+          <t>DACLATASVIR + INTROUVABLE (INTERFERON) + RIBAVIRINE</t>
         </is>
       </c>
     </row>
@@ -3585,7 +3585,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A + Ribavirine + Péginterféron alfa-2b</t>
+          <t>PEGINTERFERON ALFA-2A + RIBAVIRINE + PEGINTERFERON ALFA-2B</t>
         </is>
       </c>
     </row>
@@ -3597,7 +3597,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>INTROUVABLE (INTERFERON) + CHLORHYDRATE D'AMANTADINE + Ribavirine</t>
+          <t>INTROUVABLE (INTERFERON) + AMANTADINE + RIBAVIRINE</t>
         </is>
       </c>
     </row>
@@ -3609,7 +3609,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>dasabuvir + Ombitasvir + CONCENTRAT DE VITAMINE A SYNTHÉTIQUE, FORME HUILEUSE + Ribavirine + SOFOSBUVIR</t>
+          <t>DASABUVIR + OMBITASVIR + PARITAPREVIR ; RITONAVIR + RIBAVIRINE + SOFOSBUVIR</t>
         </is>
       </c>
     </row>
@@ -3621,7 +3621,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Ribavirine + PEGINTERFÉRON ALFA-2A + Boceprevir</t>
+          <t>RIBAVIRINE + PEGINTERFERON ALFA-2A + BOCEPREVIR</t>
         </is>
       </c>
     </row>
@@ -3633,7 +3633,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Asunaprévir + daclatasvir + PEGINTERFÉRON ALFA-2A + Ribavirine</t>
+          <t>ASUNAPREVIR + DACLATASVIR + PEGINTERFERON ALFA-2A + RIBAVIRINE</t>
         </is>
       </c>
     </row>
@@ -3645,7 +3645,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A + Péginterféron alfa-2b</t>
+          <t>PEGINTERFERON ALFA-2A + PEGINTERFERON ALFA-2B</t>
         </is>
       </c>
     </row>
@@ -3657,7 +3657,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Asunaprévir + INTROUVABLE (BMS 79 002) + PEGINTERFÉRON ALFA-2A + Ribavirine</t>
+          <t>ASUNAPREVIR + DACLATASVIR + PEGINTERFERON ALFA-2A + RIBAVIRINE</t>
         </is>
       </c>
     </row>
@@ -3669,7 +3669,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>CHLORHYDRATE D'AMANTADINE + Ribavirine</t>
+          <t>AMANTADINE + RIBAVIRINE</t>
         </is>
       </c>
     </row>
@@ -3681,7 +3681,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>ENTÉCAVIR MONOHYDRATÉ + Ribavirine</t>
+          <t>ENTECAVIR + RIBAVIRINE</t>
         </is>
       </c>
     </row>
@@ -3693,7 +3693,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>OMBITASVIR/PARITAPREVIR/RITONAVIR</t>
+          <t>OMBITASVIR</t>
         </is>
       </c>
     </row>
@@ -3705,7 +3705,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Ribavirine + PEGINTERFÉRON ALFA-2A + Deleobuvir + daclatasvir</t>
+          <t>RIBAVIRINE + PEGINTERFERON ALFA-2A + DELEOBUVIR + DACLATASVIR</t>
         </is>
       </c>
     </row>
@@ -3717,7 +3717,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>daclatasvir + INTROUVABLE (INTERFERON) + Ribavirine</t>
+          <t>DACLATASVIR + INTROUVABLE (INTERFERON) + RIBAVIRINE</t>
         </is>
       </c>
     </row>
@@ -3729,7 +3729,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A + Ribavirine + LAMIVUDINE</t>
+          <t>PEGINTERFERON ALFA-2A + RIBAVIRINE + LAMIVUDINE</t>
         </is>
       </c>
     </row>
@@ -3741,7 +3741,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A + Ribavirine + LAMIVUDINE</t>
+          <t>PEGINTERFERON ALFA-2A + RIBAVIRINE + LAMIVUDINE</t>
         </is>
       </c>
     </row>
@@ -3753,7 +3753,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>Télaprévir + PEGINTERFÉRON ALFA-2A + Ribavirine + LAMIVUDINE</t>
+          <t>TELAPREVIR + PEGINTERFERON ALFA-2A + RIBAVIRINE + LAMIVUDINE</t>
         </is>
       </c>
     </row>
@@ -3765,7 +3765,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>ADÉFOVIR DIPIVOXIL + INTROUVABLE (INTERFERON)</t>
+          <t>ADEFOVIR DIPIVOXIL + INTROUVABLE (INTERFERON)</t>
         </is>
       </c>
     </row>
@@ -3777,7 +3777,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>Daclatasvir + SIMEPREVIR</t>
+          <t>DACLATASVIR + SIMEPREVIR</t>
         </is>
       </c>
     </row>
@@ -3789,7 +3789,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>Deleobuvir + Deleobuvir</t>
+          <t>DELEOBUVIR + DELEOBUVIR</t>
         </is>
       </c>
     </row>
@@ -3801,7 +3801,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>Daclatasvir + SOFOSBUVIR; VELPATASVIR</t>
+          <t>DACLATASVIR + SOFOSBUVIR; VELPATASVIR</t>
         </is>
       </c>
     </row>
@@ -3813,7 +3813,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>Ribavirine + Interféron alfa-2b + PEGINTERFÉRON ALFA-2A</t>
+          <t>RIBAVIRINE + INTERFERON ALFA-2B + PEGINTERFERON ALFA-2A</t>
         </is>
       </c>
     </row>
@@ -3825,7 +3825,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>Ribavirine + INTROUVABLE (INTERFERON) + PEGINTERFÉRON ALFA-2A</t>
+          <t>RIBAVIRINE + INTROUVABLE (INTERFERON) + PEGINTERFERON ALFA-2A</t>
         </is>
       </c>
     </row>
@@ -3849,7 +3849,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>télaprévir + PEGINTERFÉRON ALFA-2A</t>
+          <t>TELAPREVIR + PEGINTERFERON ALFA-2A</t>
         </is>
       </c>
     </row>
@@ -3861,7 +3861,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>EMTRICITABINE + ADÉFOVIR DIPIVOXIL</t>
+          <t>EMTRICITABINE + ADEFOVIR DIPIVOXIL</t>
         </is>
       </c>
     </row>
@@ -3873,7 +3873,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>ENTÉCAVIR MONOHYDRATÉ + EMTRICITABINE + FUMARATE DE TÉNOFOVIR DISOPROXIL</t>
+          <t>ENTECAVIR + EMTRICITABINE + TENOFOVIR DISOPROXIL</t>
         </is>
       </c>
     </row>
